--- a/test0.xlsx
+++ b/test0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t>TAN</t>
   </si>
@@ -178,64 +178,13 @@
     <t>53-4246</t>
   </si>
   <si>
-    <t>68-100981</t>
-  </si>
-  <si>
-    <t>68-101040</t>
-  </si>
-  <si>
-    <t>68-101577</t>
-  </si>
-  <si>
-    <t>68-101579</t>
-  </si>
-  <si>
-    <t>68-101584</t>
-  </si>
-  <si>
-    <t>68-101629</t>
-  </si>
-  <si>
-    <t>68-101631</t>
-  </si>
-  <si>
-    <t>68-101799</t>
-  </si>
-  <si>
-    <t>68-101861</t>
-  </si>
-  <si>
-    <t>68-101863</t>
-  </si>
-  <si>
-    <t>68-101865</t>
-  </si>
-  <si>
-    <t>68-101887</t>
-  </si>
-  <si>
-    <t>68-102037</t>
-  </si>
-  <si>
-    <t>68-102070</t>
-  </si>
-  <si>
-    <t>68-102370</t>
-  </si>
-  <si>
-    <t>68-102379</t>
-  </si>
-  <si>
-    <t>68-102401</t>
-  </si>
-  <si>
-    <t>68-102402</t>
-  </si>
-  <si>
-    <t>68-102403</t>
-  </si>
-  <si>
-    <t>68-102404</t>
+    <t>68-100609</t>
+  </si>
+  <si>
+    <t>68-100611</t>
+  </si>
+  <si>
+    <t>68-101141</t>
   </si>
   <si>
     <t>68-3711</t>
@@ -250,42 +199,711 @@
     <t>68-4213</t>
   </si>
   <si>
+    <t>68-4276</t>
+  </si>
+  <si>
+    <t>68-4277</t>
+  </si>
+  <si>
+    <t>68-4489</t>
+  </si>
+  <si>
+    <t>68-4576</t>
+  </si>
+  <si>
+    <t>68-4610</t>
+  </si>
+  <si>
+    <t>68-4819</t>
+  </si>
+  <si>
+    <t>68-4852</t>
+  </si>
+  <si>
+    <t>68-4912</t>
+  </si>
+  <si>
+    <t>68-4916</t>
+  </si>
+  <si>
+    <t>68-4919</t>
+  </si>
+  <si>
+    <t>68-4920</t>
+  </si>
+  <si>
+    <t>68-4928</t>
+  </si>
+  <si>
+    <t>68-4988</t>
+  </si>
+  <si>
+    <t>68-4993</t>
+  </si>
+  <si>
+    <t>68-4999</t>
+  </si>
+  <si>
+    <t>68-5052</t>
+  </si>
+  <si>
+    <t>68-5061</t>
+  </si>
+  <si>
+    <t>68-5062</t>
+  </si>
+  <si>
+    <t>68-5161</t>
+  </si>
+  <si>
+    <t>68-5252</t>
+  </si>
+  <si>
+    <t>68-5333</t>
+  </si>
+  <si>
+    <t>68-5457</t>
+  </si>
+  <si>
+    <t>68-5460</t>
+  </si>
+  <si>
+    <t>68-5527</t>
+  </si>
+  <si>
+    <t>68-5544</t>
+  </si>
+  <si>
+    <t>68-5592</t>
+  </si>
+  <si>
+    <t>68-5626</t>
+  </si>
+  <si>
+    <t>68-5638</t>
+  </si>
+  <si>
+    <t>68-5667</t>
+  </si>
+  <si>
+    <t>68-5703</t>
+  </si>
+  <si>
+    <t>68-5706</t>
+  </si>
+  <si>
+    <t>68-5728</t>
+  </si>
+  <si>
+    <t>68-5730</t>
+  </si>
+  <si>
+    <t>68-5731</t>
+  </si>
+  <si>
+    <t>68-5759</t>
+  </si>
+  <si>
+    <t>68-5825</t>
+  </si>
+  <si>
+    <t>68-5826</t>
+  </si>
+  <si>
+    <t>68-5827</t>
+  </si>
+  <si>
+    <t>68-5845</t>
+  </si>
+  <si>
+    <t>68-5846</t>
+  </si>
+  <si>
+    <t>68-5879</t>
+  </si>
+  <si>
+    <t>68-5884</t>
+  </si>
+  <si>
+    <t>68-5885</t>
+  </si>
+  <si>
+    <t>68-5912</t>
+  </si>
+  <si>
+    <t>68-5916</t>
+  </si>
+  <si>
+    <t>68-5917</t>
+  </si>
+  <si>
+    <t>68-5950</t>
+  </si>
+  <si>
+    <t>68-5987</t>
+  </si>
+  <si>
+    <t>68-6000</t>
+  </si>
+  <si>
+    <t>68-6010</t>
+  </si>
+  <si>
+    <t>68-6076</t>
+  </si>
+  <si>
+    <t>68-6077</t>
+  </si>
+  <si>
+    <t>68-6112</t>
+  </si>
+  <si>
+    <t>68-6113</t>
+  </si>
+  <si>
+    <t>68-6115</t>
+  </si>
+  <si>
+    <t>68-6121</t>
+  </si>
+  <si>
+    <t>68-6124</t>
+  </si>
+  <si>
+    <t>68-6152</t>
+  </si>
+  <si>
+    <t>68-6156</t>
+  </si>
+  <si>
+    <t>68-6157</t>
+  </si>
+  <si>
+    <t>68-6158</t>
+  </si>
+  <si>
+    <t>68-6265</t>
+  </si>
+  <si>
+    <t>68-6319</t>
+  </si>
+  <si>
+    <t>68-6368</t>
+  </si>
+  <si>
+    <t>68-6466</t>
+  </si>
+  <si>
+    <t>68-6477</t>
+  </si>
+  <si>
+    <t>68-6748</t>
+  </si>
+  <si>
+    <t>68-6763</t>
+  </si>
+  <si>
+    <t>68-6773</t>
+  </si>
+  <si>
+    <t>68-6792</t>
+  </si>
+  <si>
+    <t>68-6800</t>
+  </si>
+  <si>
+    <t>68-6813</t>
+  </si>
+  <si>
+    <t>68-6837</t>
+  </si>
+  <si>
+    <t>68-6866</t>
+  </si>
+  <si>
+    <t>68-6867</t>
+  </si>
+  <si>
+    <t>68-6966</t>
+  </si>
+  <si>
+    <t>68-6981</t>
+  </si>
+  <si>
+    <t>68-7082</t>
+  </si>
+  <si>
+    <t>68-7102</t>
+  </si>
+  <si>
+    <t>68-7103</t>
+  </si>
+  <si>
+    <t>68-7209</t>
+  </si>
+  <si>
+    <t>68-7210</t>
+  </si>
+  <si>
+    <t>68-7211</t>
+  </si>
+  <si>
+    <t>68-7223</t>
+  </si>
+  <si>
+    <t>68-7225</t>
+  </si>
+  <si>
+    <t>68-7228</t>
+  </si>
+  <si>
+    <t>68-7230</t>
+  </si>
+  <si>
+    <t>68-7247</t>
+  </si>
+  <si>
+    <t>68-7275</t>
+  </si>
+  <si>
+    <t>68-7305</t>
+  </si>
+  <si>
+    <t>68-7323</t>
+  </si>
+  <si>
+    <t>68-7324</t>
+  </si>
+  <si>
+    <t>68-7326</t>
+  </si>
+  <si>
+    <t>69-100188</t>
+  </si>
+  <si>
+    <t>69-100189</t>
+  </si>
+  <si>
+    <t>69-100352</t>
+  </si>
+  <si>
+    <t>69-100353</t>
+  </si>
+  <si>
+    <t>69-100521</t>
+  </si>
+  <si>
+    <t>69-100526</t>
+  </si>
+  <si>
+    <t>69-100883</t>
+  </si>
+  <si>
+    <t>69-100903</t>
+  </si>
+  <si>
+    <t>69-100905</t>
+  </si>
+  <si>
+    <t>69-2440</t>
+  </si>
+  <si>
+    <t>69-2441</t>
+  </si>
+  <si>
+    <t>69-2512</t>
+  </si>
+  <si>
+    <t>69-2607</t>
+  </si>
+  <si>
+    <t>69-2608</t>
+  </si>
+  <si>
+    <t>69-2719</t>
+  </si>
+  <si>
+    <t>69-2841</t>
+  </si>
+  <si>
+    <t>700-104272</t>
+  </si>
+  <si>
+    <t>700-106692</t>
+  </si>
+  <si>
+    <t>700-107370</t>
+  </si>
+  <si>
+    <t>700-122965</t>
+  </si>
+  <si>
+    <t>700-124220</t>
+  </si>
+  <si>
+    <t>700-27112</t>
+  </si>
+  <si>
+    <t>700-27945</t>
+  </si>
+  <si>
+    <t>700-31114</t>
+  </si>
+  <si>
+    <t>700-37294</t>
+  </si>
+  <si>
+    <t>700-37788</t>
+  </si>
+  <si>
+    <t>700-37789</t>
+  </si>
+  <si>
+    <t>700-38214</t>
+  </si>
+  <si>
+    <t>700-38652</t>
+  </si>
+  <si>
+    <t>700-43199</t>
+  </si>
+  <si>
+    <t>700-44599</t>
+  </si>
+  <si>
+    <t>700-45751</t>
+  </si>
+  <si>
+    <t>700-46227</t>
+  </si>
+  <si>
+    <t>700-47766</t>
+  </si>
+  <si>
+    <t>72-0770</t>
+  </si>
+  <si>
+    <t>72-0771</t>
+  </si>
+  <si>
+    <t>72-0772</t>
+  </si>
+  <si>
+    <t>72-0773</t>
+  </si>
+  <si>
+    <t>72-0774</t>
+  </si>
+  <si>
+    <t>72-101260</t>
+  </si>
+  <si>
+    <t>72-101670</t>
+  </si>
+  <si>
+    <t>72-101856</t>
+  </si>
+  <si>
+    <t>72-101857</t>
+  </si>
+  <si>
+    <t>72-3383</t>
+  </si>
+  <si>
+    <t>72-5200</t>
+  </si>
+  <si>
+    <t>72-5201</t>
+  </si>
+  <si>
+    <t>72-5203</t>
+  </si>
+  <si>
+    <t>72-5204</t>
+  </si>
+  <si>
+    <t>72-5205</t>
+  </si>
+  <si>
+    <t>72-5206</t>
+  </si>
+  <si>
+    <t>72-5207</t>
+  </si>
+  <si>
+    <t>72-5208</t>
+  </si>
+  <si>
+    <t>72-5209</t>
+  </si>
+  <si>
+    <t>72-5210</t>
+  </si>
+  <si>
+    <t>72-5595</t>
+  </si>
+  <si>
+    <t>73-11809</t>
+  </si>
+  <si>
+    <t>73-11810</t>
+  </si>
+  <si>
+    <t>73-15664</t>
+  </si>
+  <si>
+    <t>74-104476</t>
+  </si>
+  <si>
+    <t>74-104759</t>
+  </si>
+  <si>
+    <t>74-104761</t>
+  </si>
+  <si>
+    <t>74-105090</t>
+  </si>
+  <si>
+    <t>74-105093</t>
+  </si>
+  <si>
+    <t>74-105848</t>
+  </si>
+  <si>
+    <t>74-106063</t>
+  </si>
+  <si>
+    <t>74-122079</t>
+  </si>
+  <si>
+    <t>74-122742</t>
+  </si>
+  <si>
+    <t>74-122744</t>
+  </si>
+  <si>
+    <t>74-124657</t>
+  </si>
+  <si>
+    <t>74-12502</t>
+  </si>
+  <si>
+    <t>74-13011</t>
+  </si>
+  <si>
+    <t>74-13012</t>
+  </si>
+  <si>
+    <t>74-13027</t>
+  </si>
+  <si>
+    <t>80-9984</t>
+  </si>
+  <si>
+    <t>800-102383</t>
+  </si>
+  <si>
+    <t>800-102657</t>
+  </si>
+  <si>
+    <t>800-105429</t>
+  </si>
+  <si>
+    <t>800-105675</t>
+  </si>
+  <si>
+    <t>800-105812</t>
+  </si>
+  <si>
+    <t>800-107570</t>
+  </si>
+  <si>
+    <t>800-107633</t>
+  </si>
+  <si>
+    <t>800-107996</t>
+  </si>
+  <si>
+    <t>800-108831</t>
+  </si>
+  <si>
+    <t>800-30541</t>
+  </si>
+  <si>
+    <t>800-30677</t>
+  </si>
+  <si>
+    <t>800-30761</t>
+  </si>
+  <si>
+    <t>800-31386</t>
+  </si>
+  <si>
+    <t>800-33585</t>
+  </si>
+  <si>
+    <t>800-33781</t>
+  </si>
+  <si>
+    <t>800-35052</t>
+  </si>
+  <si>
+    <t>800-35159</t>
+  </si>
+  <si>
+    <t>800-36336</t>
+  </si>
+  <si>
+    <t>800-36608</t>
+  </si>
+  <si>
+    <t>800-37280</t>
+  </si>
+  <si>
+    <t>800-37542</t>
+  </si>
+  <si>
+    <t>800-37619</t>
+  </si>
+  <si>
+    <t>800-37811</t>
+  </si>
+  <si>
+    <t>800-37884</t>
+  </si>
+  <si>
+    <t>800-37932</t>
+  </si>
+  <si>
+    <t>800-37933</t>
+  </si>
+  <si>
+    <t>800-38135</t>
+  </si>
+  <si>
+    <t>800-38531</t>
+  </si>
+  <si>
+    <t>800-38659</t>
+  </si>
+  <si>
+    <t>800-38684</t>
+  </si>
+  <si>
+    <t>800-38686</t>
+  </si>
+  <si>
+    <t>800-38894</t>
+  </si>
+  <si>
+    <t>800-39159</t>
+  </si>
+  <si>
+    <t>800-39454</t>
+  </si>
+  <si>
+    <t>800-39544</t>
+  </si>
+  <si>
+    <t>800-40064</t>
+  </si>
+  <si>
+    <t>800-40377</t>
+  </si>
+  <si>
+    <t>800-41009</t>
+  </si>
+  <si>
+    <t>800-41011</t>
+  </si>
+  <si>
+    <t>800-41025</t>
+  </si>
+  <si>
+    <t>800-41216</t>
+  </si>
+  <si>
+    <t>800-42228</t>
+  </si>
+  <si>
+    <t>800-42527</t>
+  </si>
+  <si>
+    <t>800-42655</t>
+  </si>
+  <si>
+    <t>800-42727</t>
+  </si>
+  <si>
+    <t>800-42799</t>
+  </si>
+  <si>
+    <t>800-42801</t>
+  </si>
+  <si>
+    <t>800-42852</t>
+  </si>
+  <si>
+    <t>800-42856</t>
+  </si>
+  <si>
+    <t>800-43297</t>
+  </si>
+  <si>
+    <t>800-43376</t>
+  </si>
+  <si>
+    <t>800-43520</t>
+  </si>
+  <si>
+    <t>800-43981</t>
+  </si>
+  <si>
+    <t>800-43982</t>
+  </si>
+  <si>
+    <t>800-43983</t>
+  </si>
+  <si>
+    <t>800-45522</t>
+  </si>
+  <si>
+    <t>800-46136</t>
+  </si>
+  <si>
+    <t>800-46268</t>
+  </si>
+  <si>
+    <t>800-46311</t>
+  </si>
+  <si>
+    <t>800-46827</t>
+  </si>
+  <si>
+    <t>800-47354</t>
+  </si>
+  <si>
+    <t>800-50017</t>
+  </si>
+  <si>
+    <t>800-50095</t>
+  </si>
+  <si>
+    <t>800-50096</t>
+  </si>
+  <si>
+    <t>WNBU_group_2</t>
+  </si>
+  <si>
+    <t>WNBU_group_3</t>
+  </si>
+  <si>
     <t>68-4259</t>
   </si>
   <si>
     <t>68-4260</t>
   </si>
   <si>
-    <t>68-4276</t>
-  </si>
-  <si>
-    <t>68-4277</t>
-  </si>
-  <si>
-    <t>68-4489</t>
-  </si>
-  <si>
-    <t>68-4576</t>
-  </si>
-  <si>
-    <t>68-4610</t>
-  </si>
-  <si>
-    <t>68-4636</t>
-  </si>
-  <si>
-    <t>68-4649</t>
-  </si>
-  <si>
-    <t>68-4670</t>
-  </si>
-  <si>
-    <t>68-4852</t>
-  </si>
-  <si>
-    <t>68-4871</t>
-  </si>
-  <si>
     <t>68-4873</t>
   </si>
   <si>
@@ -298,169 +916,19 @@
     <t>68-4911</t>
   </si>
   <si>
-    <t>68-4912</t>
-  </si>
-  <si>
     <t>68-4914</t>
   </si>
   <si>
-    <t>68-4916</t>
-  </si>
-  <si>
     <t>68-4917</t>
   </si>
   <si>
-    <t>68-4919</t>
-  </si>
-  <si>
-    <t>68-4920</t>
-  </si>
-  <si>
-    <t>68-4928</t>
-  </si>
-  <si>
-    <t>68-4988</t>
-  </si>
-  <si>
-    <t>68-4999</t>
-  </si>
-  <si>
-    <t>68-5052</t>
-  </si>
-  <si>
     <t>68-5053</t>
   </si>
   <si>
-    <t>68-5061</t>
-  </si>
-  <si>
-    <t>68-5062</t>
-  </si>
-  <si>
-    <t>68-5161</t>
-  </si>
-  <si>
-    <t>68-5252</t>
-  </si>
-  <si>
-    <t>68-5285</t>
-  </si>
-  <si>
-    <t>68-5307</t>
-  </si>
-  <si>
-    <t>68-5308</t>
-  </si>
-  <si>
-    <t>68-5333</t>
-  </si>
-  <si>
-    <t>68-5342</t>
-  </si>
-  <si>
-    <t>68-5375</t>
-  </si>
-  <si>
-    <t>68-5457</t>
-  </si>
-  <si>
-    <t>68-5544</t>
-  </si>
-  <si>
-    <t>68-5551</t>
-  </si>
-  <si>
-    <t>68-5592</t>
-  </si>
-  <si>
-    <t>68-5653</t>
-  </si>
-  <si>
-    <t>68-5728</t>
-  </si>
-  <si>
-    <t>68-5730</t>
-  </si>
-  <si>
-    <t>68-5731</t>
-  </si>
-  <si>
-    <t>68-5759</t>
-  </si>
-  <si>
-    <t>68-5792</t>
-  </si>
-  <si>
-    <t>68-5797</t>
-  </si>
-  <si>
-    <t>68-5825</t>
-  </si>
-  <si>
-    <t>68-5826</t>
-  </si>
-  <si>
-    <t>68-5827</t>
-  </si>
-  <si>
-    <t>68-5845</t>
-  </si>
-  <si>
-    <t>68-5846</t>
-  </si>
-  <si>
-    <t>68-5884</t>
-  </si>
-  <si>
-    <t>68-5885</t>
-  </si>
-  <si>
-    <t>68-5987</t>
-  </si>
-  <si>
-    <t>68-6000</t>
-  </si>
-  <si>
-    <t>68-6076</t>
-  </si>
-  <si>
-    <t>68-6077</t>
-  </si>
-  <si>
-    <t>68-6112</t>
-  </si>
-  <si>
-    <t>68-6113</t>
-  </si>
-  <si>
-    <t>68-6121</t>
-  </si>
-  <si>
-    <t>68-6124</t>
-  </si>
-  <si>
-    <t>68-6152</t>
-  </si>
-  <si>
     <t>68-6153</t>
   </si>
   <si>
-    <t>68-6156</t>
-  </si>
-  <si>
-    <t>68-6157</t>
-  </si>
-  <si>
-    <t>68-6158</t>
-  </si>
-  <si>
-    <t>68-6265</t>
-  </si>
-  <si>
-    <t>68-6319</t>
-  </si>
-  <si>
-    <t>68-6466</t>
+    <t>68-6225</t>
   </si>
   <si>
     <t>68-6520</t>
@@ -469,595 +937,7 @@
     <t>68-6558</t>
   </si>
   <si>
-    <t>68-6571</t>
-  </si>
-  <si>
-    <t>68-6577</t>
-  </si>
-  <si>
-    <t>68-6597</t>
-  </si>
-  <si>
-    <t>68-6748</t>
-  </si>
-  <si>
-    <t>68-6749</t>
-  </si>
-  <si>
-    <t>68-6758</t>
-  </si>
-  <si>
-    <t>68-6762</t>
-  </si>
-  <si>
-    <t>68-6773</t>
-  </si>
-  <si>
-    <t>68-6792</t>
-  </si>
-  <si>
-    <t>68-6813</t>
-  </si>
-  <si>
-    <t>68-6837</t>
-  </si>
-  <si>
-    <t>68-6865</t>
-  </si>
-  <si>
-    <t>68-6866</t>
-  </si>
-  <si>
-    <t>68-6867</t>
-  </si>
-  <si>
-    <t>68-6964</t>
-  </si>
-  <si>
-    <t>68-6966</t>
-  </si>
-  <si>
-    <t>68-6981</t>
-  </si>
-  <si>
-    <t>68-7082</t>
-  </si>
-  <si>
-    <t>68-7103</t>
-  </si>
-  <si>
-    <t>68-7202</t>
-  </si>
-  <si>
-    <t>68-7209</t>
-  </si>
-  <si>
-    <t>68-7210</t>
-  </si>
-  <si>
-    <t>68-7211</t>
-  </si>
-  <si>
     <t>68-7214</t>
-  </si>
-  <si>
-    <t>68-7225</t>
-  </si>
-  <si>
-    <t>68-7228</t>
-  </si>
-  <si>
-    <t>68-7230</t>
-  </si>
-  <si>
-    <t>68-7247</t>
-  </si>
-  <si>
-    <t>68-7275</t>
-  </si>
-  <si>
-    <t>68-7305</t>
-  </si>
-  <si>
-    <t>68-7323</t>
-  </si>
-  <si>
-    <t>68-7324</t>
-  </si>
-  <si>
-    <t>68-7326</t>
-  </si>
-  <si>
-    <t>69-100188</t>
-  </si>
-  <si>
-    <t>69-100189</t>
-  </si>
-  <si>
-    <t>69-100352</t>
-  </si>
-  <si>
-    <t>69-100353</t>
-  </si>
-  <si>
-    <t>69-100521</t>
-  </si>
-  <si>
-    <t>69-100526</t>
-  </si>
-  <si>
-    <t>69-100883</t>
-  </si>
-  <si>
-    <t>69-100903</t>
-  </si>
-  <si>
-    <t>69-100905</t>
-  </si>
-  <si>
-    <t>69-2440</t>
-  </si>
-  <si>
-    <t>69-2441</t>
-  </si>
-  <si>
-    <t>69-2512</t>
-  </si>
-  <si>
-    <t>69-2607</t>
-  </si>
-  <si>
-    <t>69-2608</t>
-  </si>
-  <si>
-    <t>69-2719</t>
-  </si>
-  <si>
-    <t>69-2841</t>
-  </si>
-  <si>
-    <t>700-104272</t>
-  </si>
-  <si>
-    <t>700-106692</t>
-  </si>
-  <si>
-    <t>700-107370</t>
-  </si>
-  <si>
-    <t>700-122965</t>
-  </si>
-  <si>
-    <t>700-124220</t>
-  </si>
-  <si>
-    <t>700-27112</t>
-  </si>
-  <si>
-    <t>700-27945</t>
-  </si>
-  <si>
-    <t>700-31114</t>
-  </si>
-  <si>
-    <t>700-37294</t>
-  </si>
-  <si>
-    <t>700-37788</t>
-  </si>
-  <si>
-    <t>700-37789</t>
-  </si>
-  <si>
-    <t>700-38214</t>
-  </si>
-  <si>
-    <t>700-38652</t>
-  </si>
-  <si>
-    <t>700-43199</t>
-  </si>
-  <si>
-    <t>700-44599</t>
-  </si>
-  <si>
-    <t>700-45751</t>
-  </si>
-  <si>
-    <t>700-46227</t>
-  </si>
-  <si>
-    <t>700-47766</t>
-  </si>
-  <si>
-    <t>72-0770</t>
-  </si>
-  <si>
-    <t>72-0771</t>
-  </si>
-  <si>
-    <t>72-0772</t>
-  </si>
-  <si>
-    <t>72-0773</t>
-  </si>
-  <si>
-    <t>72-0774</t>
-  </si>
-  <si>
-    <t>72-101260</t>
-  </si>
-  <si>
-    <t>72-101670</t>
-  </si>
-  <si>
-    <t>72-101856</t>
-  </si>
-  <si>
-    <t>72-101857</t>
-  </si>
-  <si>
-    <t>72-3383</t>
-  </si>
-  <si>
-    <t>72-5200</t>
-  </si>
-  <si>
-    <t>72-5201</t>
-  </si>
-  <si>
-    <t>72-5203</t>
-  </si>
-  <si>
-    <t>72-5204</t>
-  </si>
-  <si>
-    <t>72-5205</t>
-  </si>
-  <si>
-    <t>72-5206</t>
-  </si>
-  <si>
-    <t>72-5207</t>
-  </si>
-  <si>
-    <t>72-5208</t>
-  </si>
-  <si>
-    <t>72-5209</t>
-  </si>
-  <si>
-    <t>72-5210</t>
-  </si>
-  <si>
-    <t>72-5595</t>
-  </si>
-  <si>
-    <t>73-15664</t>
-  </si>
-  <si>
-    <t>73-20131</t>
-  </si>
-  <si>
-    <t>74-101660</t>
-  </si>
-  <si>
-    <t>74-104458</t>
-  </si>
-  <si>
-    <t>74-104476</t>
-  </si>
-  <si>
-    <t>74-104759</t>
-  </si>
-  <si>
-    <t>74-104761</t>
-  </si>
-  <si>
-    <t>74-106063</t>
-  </si>
-  <si>
-    <t>74-112276</t>
-  </si>
-  <si>
-    <t>74-112277</t>
-  </si>
-  <si>
-    <t>74-114188</t>
-  </si>
-  <si>
-    <t>74-114694</t>
-  </si>
-  <si>
-    <t>74-115427</t>
-  </si>
-  <si>
-    <t>74-118704</t>
-  </si>
-  <si>
-    <t>74-119120</t>
-  </si>
-  <si>
-    <t>74-120694</t>
-  </si>
-  <si>
-    <t>74-120696</t>
-  </si>
-  <si>
-    <t>74-120723</t>
-  </si>
-  <si>
-    <t>74-120727</t>
-  </si>
-  <si>
-    <t>74-121189</t>
-  </si>
-  <si>
-    <t>74-122018</t>
-  </si>
-  <si>
-    <t>74-122338</t>
-  </si>
-  <si>
-    <t>74-122538</t>
-  </si>
-  <si>
-    <t>74-122542</t>
-  </si>
-  <si>
-    <t>74-122543</t>
-  </si>
-  <si>
-    <t>74-122703</t>
-  </si>
-  <si>
-    <t>74-12318</t>
-  </si>
-  <si>
-    <t>74-123836</t>
-  </si>
-  <si>
-    <t>74-124014</t>
-  </si>
-  <si>
-    <t>74-12502</t>
-  </si>
-  <si>
-    <t>74-12619</t>
-  </si>
-  <si>
-    <t>74-13011</t>
-  </si>
-  <si>
-    <t>74-13012</t>
-  </si>
-  <si>
-    <t>74-13027</t>
-  </si>
-  <si>
-    <t>74-7721</t>
-  </si>
-  <si>
-    <t>80-9984</t>
-  </si>
-  <si>
-    <t>800-102383</t>
-  </si>
-  <si>
-    <t>800-102657</t>
-  </si>
-  <si>
-    <t>800-103443</t>
-  </si>
-  <si>
-    <t>800-103449</t>
-  </si>
-  <si>
-    <t>800-104709</t>
-  </si>
-  <si>
-    <t>800-105708</t>
-  </si>
-  <si>
-    <t>800-107570</t>
-  </si>
-  <si>
-    <t>800-107633</t>
-  </si>
-  <si>
-    <t>800-107996</t>
-  </si>
-  <si>
-    <t>800-108831</t>
-  </si>
-  <si>
-    <t>800-30541</t>
-  </si>
-  <si>
-    <t>800-30677</t>
-  </si>
-  <si>
-    <t>800-30761</t>
-  </si>
-  <si>
-    <t>800-31386</t>
-  </si>
-  <si>
-    <t>800-35052</t>
-  </si>
-  <si>
-    <t>800-35159</t>
-  </si>
-  <si>
-    <t>800-36336</t>
-  </si>
-  <si>
-    <t>800-37280</t>
-  </si>
-  <si>
-    <t>800-37542</t>
-  </si>
-  <si>
-    <t>800-37619</t>
-  </si>
-  <si>
-    <t>800-37792</t>
-  </si>
-  <si>
-    <t>800-37811</t>
-  </si>
-  <si>
-    <t>800-37884</t>
-  </si>
-  <si>
-    <t>800-37932</t>
-  </si>
-  <si>
-    <t>800-37933</t>
-  </si>
-  <si>
-    <t>800-38135</t>
-  </si>
-  <si>
-    <t>800-38531</t>
-  </si>
-  <si>
-    <t>800-38684</t>
-  </si>
-  <si>
-    <t>800-38686</t>
-  </si>
-  <si>
-    <t>800-38894</t>
-  </si>
-  <si>
-    <t>800-39159</t>
-  </si>
-  <si>
-    <t>800-39452</t>
-  </si>
-  <si>
-    <t>800-39544</t>
-  </si>
-  <si>
-    <t>800-39979</t>
-  </si>
-  <si>
-    <t>800-40064</t>
-  </si>
-  <si>
-    <t>800-40377</t>
-  </si>
-  <si>
-    <t>800-41011</t>
-  </si>
-  <si>
-    <t>800-41216</t>
-  </si>
-  <si>
-    <t>800-42228</t>
-  </si>
-  <si>
-    <t>800-42527</t>
-  </si>
-  <si>
-    <t>800-42655</t>
-  </si>
-  <si>
-    <t>800-42852</t>
-  </si>
-  <si>
-    <t>800-43190</t>
-  </si>
-  <si>
-    <t>800-43191</t>
-  </si>
-  <si>
-    <t>800-43297</t>
-  </si>
-  <si>
-    <t>800-43298</t>
-  </si>
-  <si>
-    <t>800-43376</t>
-  </si>
-  <si>
-    <t>800-43520</t>
-  </si>
-  <si>
-    <t>800-43981</t>
-  </si>
-  <si>
-    <t>800-43982</t>
-  </si>
-  <si>
-    <t>800-43983</t>
-  </si>
-  <si>
-    <t>800-45904</t>
-  </si>
-  <si>
-    <t>800-46136</t>
-  </si>
-  <si>
-    <t>800-46268</t>
-  </si>
-  <si>
-    <t>800-46311</t>
-  </si>
-  <si>
-    <t>800-46827</t>
-  </si>
-  <si>
-    <t>800-48762</t>
-  </si>
-  <si>
-    <t>WNBU_group_3</t>
-  </si>
-  <si>
-    <t>68-4819</t>
-  </si>
-  <si>
-    <t>68-4993</t>
-  </si>
-  <si>
-    <t>68-5703</t>
-  </si>
-  <si>
-    <t>68-5912</t>
-  </si>
-  <si>
-    <t>68-5916</t>
-  </si>
-  <si>
-    <t>68-5917</t>
-  </si>
-  <si>
-    <t>68-6115</t>
-  </si>
-  <si>
-    <t>68-6225</t>
-  </si>
-  <si>
-    <t>68-6477</t>
-  </si>
-  <si>
-    <t>68-6800</t>
-  </si>
-  <si>
-    <t>68-7102</t>
-  </si>
-  <si>
-    <t>68-7223</t>
-  </si>
-  <si>
-    <t>800-33781</t>
-  </si>
-  <si>
-    <t>800-36608</t>
-  </si>
-  <si>
-    <t>800-42727</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1295,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B348"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1914,7 +1794,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2002,7 +1882,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2010,7 +1890,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2066,7 +1946,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2130,7 +2010,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2138,7 +2018,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2226,7 +2106,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2362,7 +2242,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2426,7 +2306,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2642,7 +2522,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2674,7 +2554,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2890,7 +2770,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3378,7 +3258,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3418,7 +3298,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3474,7 +3354,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3490,7 +3370,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3522,7 +3402,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3546,7 +3426,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3554,7 +3434,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3578,7 +3458,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3642,7 +3522,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3754,7 +3634,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3834,7 +3714,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3874,7 +3754,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3882,326 +3762,6 @@
         <v>307</v>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B309" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B310" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B311" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B312" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B313" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B314" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B315" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B316" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B317" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B318" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B319" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B320" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B321" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B322" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B323" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B324" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B325" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B326" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B327" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B328" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B329" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B330" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B331" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
-      <c r="A332" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B332" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B333" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B334" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B335" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B336" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B337" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2">
-      <c r="A338" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B338" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
-      <c r="A339" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B339" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2">
-      <c r="A340" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B340" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
-      <c r="A341" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B341" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B342" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
-      <c r="A343" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B343" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
-      <c r="A344" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B344" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2">
-      <c r="A345" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B345" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2">
-      <c r="A346" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B346" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B347" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B348" t="b">
         <v>0</v>
       </c>
     </row>

--- a/test0.xlsx
+++ b/test0.xlsx
@@ -14,801 +14,2406 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="959">
   <si>
     <t>TAN</t>
   </si>
   <si>
-    <t>15-104828</t>
-  </si>
-  <si>
-    <t>16-101166</t>
+    <t>07-100388</t>
+  </si>
+  <si>
+    <t>07-100578</t>
+  </si>
+  <si>
+    <t>07-1137</t>
+  </si>
+  <si>
+    <t>07-1144</t>
+  </si>
+  <si>
+    <t>08-1033</t>
+  </si>
+  <si>
+    <t>08-1035</t>
+  </si>
+  <si>
+    <t>08-1062</t>
+  </si>
+  <si>
+    <t>08-1098</t>
+  </si>
+  <si>
+    <t>08-1099</t>
+  </si>
+  <si>
+    <t>08-1111</t>
+  </si>
+  <si>
+    <t>10-0101</t>
+  </si>
+  <si>
+    <t>10-1245</t>
+  </si>
+  <si>
+    <t>10-2077</t>
+  </si>
+  <si>
+    <t>10-2080</t>
+  </si>
+  <si>
+    <t>10-2093</t>
+  </si>
+  <si>
+    <t>10-2262</t>
+  </si>
+  <si>
+    <t>10-2415</t>
+  </si>
+  <si>
+    <t>10-2456</t>
+  </si>
+  <si>
+    <t>10-2457</t>
+  </si>
+  <si>
+    <t>10-2531</t>
+  </si>
+  <si>
+    <t>10-2621</t>
+  </si>
+  <si>
+    <t>10-2624</t>
+  </si>
+  <si>
+    <t>10-2625</t>
+  </si>
+  <si>
+    <t>10-2626</t>
+  </si>
+  <si>
+    <t>10-2672</t>
+  </si>
+  <si>
+    <t>10-2837</t>
+  </si>
+  <si>
+    <t>10-2842</t>
+  </si>
+  <si>
+    <t>10-2843</t>
+  </si>
+  <si>
+    <t>10-2844</t>
+  </si>
+  <si>
+    <t>10-2845</t>
+  </si>
+  <si>
+    <t>10-2846</t>
+  </si>
+  <si>
+    <t>10-2847</t>
+  </si>
+  <si>
+    <t>10-2898</t>
+  </si>
+  <si>
+    <t>10-2925</t>
+  </si>
+  <si>
+    <t>10-2926</t>
+  </si>
+  <si>
+    <t>10-2927</t>
+  </si>
+  <si>
+    <t>10-2928</t>
+  </si>
+  <si>
+    <t>10-2929</t>
+  </si>
+  <si>
+    <t>10-2930</t>
+  </si>
+  <si>
+    <t>10-2939</t>
+  </si>
+  <si>
+    <t>10-2945</t>
+  </si>
+  <si>
+    <t>10-3028</t>
+  </si>
+  <si>
+    <t>10-3063</t>
+  </si>
+  <si>
+    <t>10-3068</t>
+  </si>
+  <si>
+    <t>10-3090</t>
+  </si>
+  <si>
+    <t>10-3105</t>
+  </si>
+  <si>
+    <t>10-3107</t>
+  </si>
+  <si>
+    <t>10-3113</t>
+  </si>
+  <si>
+    <t>10-3115</t>
+  </si>
+  <si>
+    <t>10-3118</t>
+  </si>
+  <si>
+    <t>10-3142</t>
+  </si>
+  <si>
+    <t>10-3144</t>
+  </si>
+  <si>
+    <t>10-3145</t>
+  </si>
+  <si>
+    <t>10-3146</t>
+  </si>
+  <si>
+    <t>10-3148</t>
+  </si>
+  <si>
+    <t>10-3155</t>
+  </si>
+  <si>
+    <t>10-3172</t>
+  </si>
+  <si>
+    <t>10-3173</t>
+  </si>
+  <si>
+    <t>10-3174</t>
+  </si>
+  <si>
+    <t>10-3175</t>
+  </si>
+  <si>
+    <t>10-3176</t>
+  </si>
+  <si>
+    <t>10-3177</t>
+  </si>
+  <si>
+    <t>10-3178</t>
+  </si>
+  <si>
+    <t>10-3179</t>
+  </si>
+  <si>
+    <t>10-3180</t>
+  </si>
+  <si>
+    <t>10-3181</t>
+  </si>
+  <si>
+    <t>10-3220</t>
+  </si>
+  <si>
+    <t>10-3227</t>
+  </si>
+  <si>
+    <t>10-3236</t>
+  </si>
+  <si>
+    <t>10-3237</t>
+  </si>
+  <si>
+    <t>10-3238</t>
+  </si>
+  <si>
+    <t>10-3239</t>
+  </si>
+  <si>
+    <t>10-3240</t>
+  </si>
+  <si>
+    <t>10-3241</t>
+  </si>
+  <si>
+    <t>10-3251</t>
+  </si>
+  <si>
+    <t>10-3317</t>
+  </si>
+  <si>
+    <t>10-3388</t>
+  </si>
+  <si>
+    <t>10-3389</t>
+  </si>
+  <si>
+    <t>10-3507</t>
+  </si>
+  <si>
+    <t>15-100175</t>
+  </si>
+  <si>
+    <t>15-1002880</t>
+  </si>
+  <si>
+    <t>15-10143</t>
+  </si>
+  <si>
+    <t>15-101737</t>
+  </si>
+  <si>
+    <t>15-10184</t>
+  </si>
+  <si>
+    <t>15-102068</t>
+  </si>
+  <si>
+    <t>15-102083</t>
+  </si>
+  <si>
+    <t>15-102093</t>
+  </si>
+  <si>
+    <t>15-102103</t>
+  </si>
+  <si>
+    <t>15-102104</t>
+  </si>
+  <si>
+    <t>15-102502</t>
+  </si>
+  <si>
+    <t>15-102518</t>
+  </si>
+  <si>
+    <t>15-102565</t>
+  </si>
+  <si>
+    <t>15-102566</t>
+  </si>
+  <si>
+    <t>15-102792</t>
+  </si>
+  <si>
+    <t>15-102919</t>
+  </si>
+  <si>
+    <t>15-102933</t>
+  </si>
+  <si>
+    <t>15-103231</t>
+  </si>
+  <si>
+    <t>15-103398</t>
+  </si>
+  <si>
+    <t>15-103472</t>
+  </si>
+  <si>
+    <t>15-103787</t>
+  </si>
+  <si>
+    <t>15-103880</t>
+  </si>
+  <si>
+    <t>15-103921</t>
+  </si>
+  <si>
+    <t>15-103962</t>
+  </si>
+  <si>
+    <t>15-104112</t>
+  </si>
+  <si>
+    <t>15-104174</t>
+  </si>
+  <si>
+    <t>15-104275</t>
+  </si>
+  <si>
+    <t>15-104381</t>
+  </si>
+  <si>
+    <t>15-104460</t>
+  </si>
+  <si>
+    <t>15-104536</t>
+  </si>
+  <si>
+    <t>15-104664</t>
+  </si>
+  <si>
+    <t>15-104764</t>
+  </si>
+  <si>
+    <t>15-104827</t>
+  </si>
+  <si>
+    <t>15-104867</t>
+  </si>
+  <si>
+    <t>15-104943</t>
+  </si>
+  <si>
+    <t>15-104976</t>
+  </si>
+  <si>
+    <t>15-105091</t>
+  </si>
+  <si>
+    <t>15-105139</t>
+  </si>
+  <si>
+    <t>15-105184</t>
+  </si>
+  <si>
+    <t>15-105263</t>
+  </si>
+  <si>
+    <t>15-105354</t>
+  </si>
+  <si>
+    <t>15-105432</t>
+  </si>
+  <si>
+    <t>15-105437</t>
+  </si>
+  <si>
+    <t>15-105663</t>
+  </si>
+  <si>
+    <t>15-105736</t>
+  </si>
+  <si>
+    <t>15-105777</t>
+  </si>
+  <si>
+    <t>15-105783</t>
+  </si>
+  <si>
+    <t>15-105784</t>
+  </si>
+  <si>
+    <t>15-105893</t>
+  </si>
+  <si>
+    <t>15-105915</t>
+  </si>
+  <si>
+    <t>15-105962</t>
+  </si>
+  <si>
+    <t>15-106013</t>
+  </si>
+  <si>
+    <t>15-106118</t>
+  </si>
+  <si>
+    <t>15-106327</t>
+  </si>
+  <si>
+    <t>15-106348</t>
+  </si>
+  <si>
+    <t>15-106507</t>
+  </si>
+  <si>
+    <t>15-106508</t>
+  </si>
+  <si>
+    <t>15-106513</t>
+  </si>
+  <si>
+    <t>15-106531</t>
+  </si>
+  <si>
+    <t>15-106623</t>
+  </si>
+  <si>
+    <t>15-107068</t>
+  </si>
+  <si>
+    <t>15-107070</t>
+  </si>
+  <si>
+    <t>15-107071</t>
+  </si>
+  <si>
+    <t>15-107136</t>
+  </si>
+  <si>
+    <t>15-107197</t>
+  </si>
+  <si>
+    <t>15-107437</t>
+  </si>
+  <si>
+    <t>15-107440</t>
+  </si>
+  <si>
+    <t>15-107467</t>
+  </si>
+  <si>
+    <t>15-107531</t>
+  </si>
+  <si>
+    <t>15-107555</t>
+  </si>
+  <si>
+    <t>15-107571</t>
+  </si>
+  <si>
+    <t>15-107637</t>
+  </si>
+  <si>
+    <t>15-107647</t>
+  </si>
+  <si>
+    <t>15-107687</t>
+  </si>
+  <si>
+    <t>15-107691</t>
+  </si>
+  <si>
+    <t>15-107739</t>
+  </si>
+  <si>
+    <t>15-107758</t>
+  </si>
+  <si>
+    <t>15-107941</t>
+  </si>
+  <si>
+    <t>15-108038</t>
+  </si>
+  <si>
+    <t>15-108072</t>
+  </si>
+  <si>
+    <t>15-108133</t>
+  </si>
+  <si>
+    <t>15-108149</t>
+  </si>
+  <si>
+    <t>15-108151</t>
+  </si>
+  <si>
+    <t>15-108158</t>
+  </si>
+  <si>
+    <t>15-108186</t>
+  </si>
+  <si>
+    <t>15-108188</t>
+  </si>
+  <si>
+    <t>15-108204</t>
+  </si>
+  <si>
+    <t>15-108218</t>
+  </si>
+  <si>
+    <t>15-108453</t>
+  </si>
+  <si>
+    <t>15-108629</t>
+  </si>
+  <si>
+    <t>15-108687</t>
+  </si>
+  <si>
+    <t>15-108704</t>
+  </si>
+  <si>
+    <t>15-108705</t>
+  </si>
+  <si>
+    <t>15-108730</t>
+  </si>
+  <si>
+    <t>15-108754</t>
+  </si>
+  <si>
+    <t>15-10983</t>
+  </si>
+  <si>
+    <t>15-10992</t>
+  </si>
+  <si>
+    <t>15-11261</t>
+  </si>
+  <si>
+    <t>15-11263</t>
+  </si>
+  <si>
+    <t>15-11300</t>
+  </si>
+  <si>
+    <t>15-11958</t>
+  </si>
+  <si>
+    <t>15-12135</t>
+  </si>
+  <si>
+    <t>15-12182</t>
+  </si>
+  <si>
+    <t>15-12325</t>
+  </si>
+  <si>
+    <t>15-12382</t>
+  </si>
+  <si>
+    <t>15-12411</t>
+  </si>
+  <si>
+    <t>15-12678</t>
+  </si>
+  <si>
+    <t>15-12762</t>
+  </si>
+  <si>
+    <t>15-13478</t>
+  </si>
+  <si>
+    <t>15-13662</t>
+  </si>
+  <si>
+    <t>15-13877</t>
+  </si>
+  <si>
+    <t>15-13891</t>
+  </si>
+  <si>
+    <t>15-13894</t>
+  </si>
+  <si>
+    <t>15-13959</t>
+  </si>
+  <si>
+    <t>15-14054</t>
+  </si>
+  <si>
+    <t>15-14076</t>
+  </si>
+  <si>
+    <t>15-14087</t>
+  </si>
+  <si>
+    <t>15-14103</t>
+  </si>
+  <si>
+    <t>15-14274</t>
+  </si>
+  <si>
+    <t>15-14324</t>
+  </si>
+  <si>
+    <t>15-14372</t>
+  </si>
+  <si>
+    <t>15-14500</t>
+  </si>
+  <si>
+    <t>15-14574</t>
+  </si>
+  <si>
+    <t>15-14616</t>
+  </si>
+  <si>
+    <t>15-14629</t>
+  </si>
+  <si>
+    <t>15-1897</t>
+  </si>
+  <si>
+    <t>15-2236</t>
+  </si>
+  <si>
+    <t>15-2812</t>
+  </si>
+  <si>
+    <t>15-4210</t>
+  </si>
+  <si>
+    <t>15-5067</t>
+  </si>
+  <si>
+    <t>15-5436</t>
+  </si>
+  <si>
+    <t>15-5619</t>
+  </si>
+  <si>
+    <t>15-8031</t>
+  </si>
+  <si>
+    <t>15-8422</t>
+  </si>
+  <si>
+    <t>15-8497</t>
+  </si>
+  <si>
+    <t>15-9377</t>
+  </si>
+  <si>
+    <t>15-9655</t>
+  </si>
+  <si>
+    <t>15-9998</t>
+  </si>
+  <si>
+    <t>16-100346</t>
+  </si>
+  <si>
+    <t>16-101277</t>
+  </si>
+  <si>
+    <t>16-101278</t>
+  </si>
+  <si>
+    <t>16-101279</t>
+  </si>
+  <si>
+    <t>16-101462</t>
+  </si>
+  <si>
+    <t>16-3118</t>
+  </si>
+  <si>
+    <t>16-3704</t>
+  </si>
+  <si>
+    <t>16-3932</t>
+  </si>
+  <si>
+    <t>16-4122</t>
+  </si>
+  <si>
+    <t>16-4144</t>
+  </si>
+  <si>
+    <t>16-4459</t>
   </si>
   <si>
     <t>16-4461</t>
   </si>
   <si>
-    <t>30-100131</t>
-  </si>
-  <si>
-    <t>341-0400</t>
-  </si>
-  <si>
-    <t>341-0401</t>
-  </si>
-  <si>
-    <t>341-0424</t>
-  </si>
-  <si>
-    <t>341-0435</t>
-  </si>
-  <si>
-    <t>341-0591</t>
-  </si>
-  <si>
-    <t>341-0669</t>
-  </si>
-  <si>
-    <t>341-0670</t>
-  </si>
-  <si>
-    <t>341-0690</t>
-  </si>
-  <si>
-    <t>341-0721</t>
-  </si>
-  <si>
-    <t>341-100704</t>
-  </si>
-  <si>
-    <t>341-100705</t>
-  </si>
-  <si>
-    <t>341-101198</t>
-  </si>
-  <si>
-    <t>341-101199</t>
-  </si>
-  <si>
-    <t>37-0660</t>
-  </si>
-  <si>
-    <t>37-0822</t>
-  </si>
-  <si>
-    <t>37-0936</t>
-  </si>
-  <si>
-    <t>37-1057</t>
-  </si>
-  <si>
-    <t>37-1656</t>
-  </si>
-  <si>
-    <t>37-1711</t>
-  </si>
-  <si>
-    <t>37-1808</t>
-  </si>
-  <si>
-    <t>37-1864</t>
-  </si>
-  <si>
-    <t>48-0418</t>
-  </si>
-  <si>
-    <t>51-2870</t>
-  </si>
-  <si>
-    <t>53-100640</t>
-  </si>
-  <si>
-    <t>53-100693</t>
-  </si>
-  <si>
-    <t>53-100788</t>
-  </si>
-  <si>
-    <t>53-100794</t>
-  </si>
-  <si>
-    <t>53-101070</t>
-  </si>
-  <si>
-    <t>53-101104</t>
-  </si>
-  <si>
-    <t>53-101105</t>
-  </si>
-  <si>
-    <t>53-2201</t>
-  </si>
-  <si>
-    <t>53-3040</t>
-  </si>
-  <si>
-    <t>53-3206</t>
-  </si>
-  <si>
-    <t>53-3223</t>
-  </si>
-  <si>
-    <t>53-3224</t>
-  </si>
-  <si>
-    <t>53-3225</t>
-  </si>
-  <si>
-    <t>53-3226</t>
-  </si>
-  <si>
-    <t>53-3274</t>
-  </si>
-  <si>
-    <t>53-3275</t>
-  </si>
-  <si>
-    <t>53-3458</t>
-  </si>
-  <si>
-    <t>53-3510</t>
-  </si>
-  <si>
-    <t>53-3511</t>
-  </si>
-  <si>
-    <t>53-3512</t>
-  </si>
-  <si>
-    <t>53-3780</t>
-  </si>
-  <si>
-    <t>53-3794</t>
-  </si>
-  <si>
-    <t>53-3810</t>
-  </si>
-  <si>
-    <t>53-3874</t>
-  </si>
-  <si>
-    <t>53-4069</t>
-  </si>
-  <si>
-    <t>53-4246</t>
-  </si>
-  <si>
-    <t>68-100609</t>
-  </si>
-  <si>
-    <t>68-100611</t>
-  </si>
-  <si>
-    <t>68-101141</t>
-  </si>
-  <si>
-    <t>68-3711</t>
-  </si>
-  <si>
-    <t>68-4084</t>
-  </si>
-  <si>
-    <t>68-4212</t>
-  </si>
-  <si>
-    <t>68-4213</t>
-  </si>
-  <si>
-    <t>68-4276</t>
-  </si>
-  <si>
-    <t>68-4277</t>
-  </si>
-  <si>
-    <t>68-4489</t>
-  </si>
-  <si>
-    <t>68-4576</t>
-  </si>
-  <si>
-    <t>68-4610</t>
-  </si>
-  <si>
-    <t>68-4819</t>
-  </si>
-  <si>
-    <t>68-4852</t>
-  </si>
-  <si>
-    <t>68-4912</t>
-  </si>
-  <si>
-    <t>68-4916</t>
-  </si>
-  <si>
-    <t>68-4919</t>
-  </si>
-  <si>
-    <t>68-4920</t>
-  </si>
-  <si>
-    <t>68-4928</t>
-  </si>
-  <si>
-    <t>68-4988</t>
-  </si>
-  <si>
-    <t>68-4993</t>
-  </si>
-  <si>
-    <t>68-4999</t>
-  </si>
-  <si>
-    <t>68-5052</t>
-  </si>
-  <si>
-    <t>68-5061</t>
-  </si>
-  <si>
-    <t>68-5062</t>
-  </si>
-  <si>
-    <t>68-5161</t>
-  </si>
-  <si>
-    <t>68-5252</t>
-  </si>
-  <si>
-    <t>68-5333</t>
-  </si>
-  <si>
-    <t>68-5457</t>
-  </si>
-  <si>
-    <t>68-5460</t>
-  </si>
-  <si>
-    <t>68-5527</t>
-  </si>
-  <si>
-    <t>68-5544</t>
-  </si>
-  <si>
-    <t>68-5592</t>
-  </si>
-  <si>
-    <t>68-5626</t>
-  </si>
-  <si>
-    <t>68-5638</t>
-  </si>
-  <si>
-    <t>68-5667</t>
-  </si>
-  <si>
-    <t>68-5703</t>
-  </si>
-  <si>
-    <t>68-5706</t>
-  </si>
-  <si>
-    <t>68-5728</t>
-  </si>
-  <si>
-    <t>68-5730</t>
-  </si>
-  <si>
-    <t>68-5731</t>
-  </si>
-  <si>
-    <t>68-5759</t>
-  </si>
-  <si>
-    <t>68-5825</t>
-  </si>
-  <si>
-    <t>68-5826</t>
-  </si>
-  <si>
-    <t>68-5827</t>
-  </si>
-  <si>
-    <t>68-5845</t>
-  </si>
-  <si>
-    <t>68-5846</t>
-  </si>
-  <si>
-    <t>68-5879</t>
-  </si>
-  <si>
-    <t>68-5884</t>
-  </si>
-  <si>
-    <t>68-5885</t>
-  </si>
-  <si>
-    <t>68-5912</t>
-  </si>
-  <si>
-    <t>68-5916</t>
-  </si>
-  <si>
-    <t>68-5917</t>
-  </si>
-  <si>
-    <t>68-5950</t>
-  </si>
-  <si>
-    <t>68-5987</t>
-  </si>
-  <si>
-    <t>68-6000</t>
-  </si>
-  <si>
-    <t>68-6010</t>
-  </si>
-  <si>
-    <t>68-6076</t>
-  </si>
-  <si>
-    <t>68-6077</t>
-  </si>
-  <si>
-    <t>68-6112</t>
-  </si>
-  <si>
-    <t>68-6113</t>
-  </si>
-  <si>
-    <t>68-6115</t>
-  </si>
-  <si>
-    <t>68-6121</t>
-  </si>
-  <si>
-    <t>68-6124</t>
-  </si>
-  <si>
-    <t>68-6152</t>
-  </si>
-  <si>
-    <t>68-6156</t>
-  </si>
-  <si>
-    <t>68-6157</t>
-  </si>
-  <si>
-    <t>68-6158</t>
-  </si>
-  <si>
-    <t>68-6265</t>
-  </si>
-  <si>
-    <t>68-6319</t>
-  </si>
-  <si>
-    <t>68-6368</t>
-  </si>
-  <si>
-    <t>68-6466</t>
-  </si>
-  <si>
-    <t>68-6477</t>
-  </si>
-  <si>
-    <t>68-6748</t>
-  </si>
-  <si>
-    <t>68-6763</t>
-  </si>
-  <si>
-    <t>68-6773</t>
-  </si>
-  <si>
-    <t>68-6792</t>
-  </si>
-  <si>
-    <t>68-6800</t>
-  </si>
-  <si>
-    <t>68-6813</t>
-  </si>
-  <si>
-    <t>68-6837</t>
-  </si>
-  <si>
-    <t>68-6866</t>
-  </si>
-  <si>
-    <t>68-6867</t>
-  </si>
-  <si>
-    <t>68-6966</t>
-  </si>
-  <si>
-    <t>68-6981</t>
-  </si>
-  <si>
-    <t>68-7082</t>
-  </si>
-  <si>
-    <t>68-7102</t>
-  </si>
-  <si>
-    <t>68-7103</t>
-  </si>
-  <si>
-    <t>68-7209</t>
-  </si>
-  <si>
-    <t>68-7210</t>
-  </si>
-  <si>
-    <t>68-7211</t>
-  </si>
-  <si>
-    <t>68-7223</t>
-  </si>
-  <si>
-    <t>68-7225</t>
-  </si>
-  <si>
-    <t>68-7228</t>
-  </si>
-  <si>
-    <t>68-7230</t>
-  </si>
-  <si>
-    <t>68-7247</t>
-  </si>
-  <si>
-    <t>68-7275</t>
-  </si>
-  <si>
-    <t>68-7305</t>
-  </si>
-  <si>
-    <t>68-7323</t>
-  </si>
-  <si>
-    <t>68-7324</t>
-  </si>
-  <si>
-    <t>68-7326</t>
-  </si>
-  <si>
-    <t>69-100188</t>
-  </si>
-  <si>
-    <t>69-100189</t>
-  </si>
-  <si>
-    <t>69-100352</t>
-  </si>
-  <si>
-    <t>69-100353</t>
-  </si>
-  <si>
-    <t>69-100521</t>
-  </si>
-  <si>
-    <t>69-100526</t>
-  </si>
-  <si>
-    <t>69-100883</t>
-  </si>
-  <si>
-    <t>69-100903</t>
-  </si>
-  <si>
-    <t>69-100905</t>
-  </si>
-  <si>
-    <t>69-2440</t>
-  </si>
-  <si>
-    <t>69-2441</t>
-  </si>
-  <si>
-    <t>69-2512</t>
-  </si>
-  <si>
-    <t>69-2607</t>
-  </si>
-  <si>
-    <t>69-2608</t>
-  </si>
-  <si>
-    <t>69-2719</t>
-  </si>
-  <si>
-    <t>69-2841</t>
-  </si>
-  <si>
-    <t>700-104272</t>
-  </si>
-  <si>
-    <t>700-106692</t>
-  </si>
-  <si>
-    <t>700-107370</t>
-  </si>
-  <si>
-    <t>700-122965</t>
-  </si>
-  <si>
-    <t>700-124220</t>
-  </si>
-  <si>
-    <t>700-27112</t>
-  </si>
-  <si>
-    <t>700-27945</t>
-  </si>
-  <si>
-    <t>700-31114</t>
-  </si>
-  <si>
-    <t>700-37294</t>
-  </si>
-  <si>
-    <t>700-37788</t>
-  </si>
-  <si>
-    <t>700-37789</t>
-  </si>
-  <si>
-    <t>700-38214</t>
-  </si>
-  <si>
-    <t>700-38652</t>
-  </si>
-  <si>
-    <t>700-43199</t>
-  </si>
-  <si>
-    <t>700-44599</t>
-  </si>
-  <si>
-    <t>700-45751</t>
-  </si>
-  <si>
-    <t>700-46227</t>
-  </si>
-  <si>
-    <t>700-47766</t>
-  </si>
-  <si>
-    <t>72-0770</t>
+    <t>30-100286</t>
+  </si>
+  <si>
+    <t>30-1475</t>
+  </si>
+  <si>
+    <t>34-100275</t>
+  </si>
+  <si>
+    <t>34-100357</t>
+  </si>
+  <si>
+    <t>34-100374</t>
+  </si>
+  <si>
+    <t>34-2549</t>
+  </si>
+  <si>
+    <t>341-0375</t>
+  </si>
+  <si>
+    <t>341-0403</t>
+  </si>
+  <si>
+    <t>341-0436</t>
+  </si>
+  <si>
+    <t>341-0481</t>
+  </si>
+  <si>
+    <t>341-0492</t>
+  </si>
+  <si>
+    <t>341-0493</t>
+  </si>
+  <si>
+    <t>341-0497</t>
+  </si>
+  <si>
+    <t>341-0498</t>
+  </si>
+  <si>
+    <t>341-0504</t>
+  </si>
+  <si>
+    <t>341-0530</t>
+  </si>
+  <si>
+    <t>341-0531</t>
+  </si>
+  <si>
+    <t>341-0532</t>
+  </si>
+  <si>
+    <t>341-0533</t>
+  </si>
+  <si>
+    <t>341-0543</t>
+  </si>
+  <si>
+    <t>341-0560</t>
+  </si>
+  <si>
+    <t>341-0561</t>
+  </si>
+  <si>
+    <t>341-0617</t>
+  </si>
+  <si>
+    <t>341-0618</t>
+  </si>
+  <si>
+    <t>341-0629</t>
+  </si>
+  <si>
+    <t>341-0673</t>
+  </si>
+  <si>
+    <t>341-0674</t>
+  </si>
+  <si>
+    <t>341-0692</t>
+  </si>
+  <si>
+    <t>341-0693</t>
+  </si>
+  <si>
+    <t>341-0701</t>
+  </si>
+  <si>
+    <t>341-0725</t>
+  </si>
+  <si>
+    <t>341-0728</t>
+  </si>
+  <si>
+    <t>341-0729</t>
+  </si>
+  <si>
+    <t>341-0730</t>
+  </si>
+  <si>
+    <t>341-0731</t>
+  </si>
+  <si>
+    <t>341-0733</t>
+  </si>
+  <si>
+    <t>341-0734</t>
+  </si>
+  <si>
+    <t>341-0736</t>
+  </si>
+  <si>
+    <t>341-0737</t>
+  </si>
+  <si>
+    <t>341-0739</t>
+  </si>
+  <si>
+    <t>341-0740</t>
+  </si>
+  <si>
+    <t>341-0743</t>
+  </si>
+  <si>
+    <t>341-0744</t>
+  </si>
+  <si>
+    <t>341-0753</t>
+  </si>
+  <si>
+    <t>341-0754</t>
+  </si>
+  <si>
+    <t>341-0759</t>
+  </si>
+  <si>
+    <t>341-0760</t>
+  </si>
+  <si>
+    <t>341-0765</t>
+  </si>
+  <si>
+    <t>341-0766</t>
+  </si>
+  <si>
+    <t>341-0768</t>
+  </si>
+  <si>
+    <t>341-0769</t>
+  </si>
+  <si>
+    <t>341-0776</t>
+  </si>
+  <si>
+    <t>341-100301</t>
+  </si>
+  <si>
+    <t>341-100438</t>
+  </si>
+  <si>
+    <t>341-100439</t>
+  </si>
+  <si>
+    <t>341-100503</t>
+  </si>
+  <si>
+    <t>341-100521</t>
+  </si>
+  <si>
+    <t>341-100577</t>
+  </si>
+  <si>
+    <t>341-100578</t>
+  </si>
+  <si>
+    <t>341-100633</t>
+  </si>
+  <si>
+    <t>341-100644</t>
+  </si>
+  <si>
+    <t>341-100744</t>
+  </si>
+  <si>
+    <t>341-100789</t>
+  </si>
+  <si>
+    <t>341-100790</t>
+  </si>
+  <si>
+    <t>341-100792</t>
+  </si>
+  <si>
+    <t>341-100793</t>
+  </si>
+  <si>
+    <t>341-100794</t>
+  </si>
+  <si>
+    <t>341-100831</t>
+  </si>
+  <si>
+    <t>341-100924</t>
+  </si>
+  <si>
+    <t>341-101048</t>
+  </si>
+  <si>
+    <t>341-101049</t>
+  </si>
+  <si>
+    <t>341-101050</t>
+  </si>
+  <si>
+    <t>341-101052</t>
+  </si>
+  <si>
+    <t>341-101114</t>
+  </si>
+  <si>
+    <t>341-101115</t>
+  </si>
+  <si>
+    <t>341-101116</t>
+  </si>
+  <si>
+    <t>341-101117</t>
+  </si>
+  <si>
+    <t>341-101118</t>
+  </si>
+  <si>
+    <t>341-101119</t>
+  </si>
+  <si>
+    <t>341-101120</t>
+  </si>
+  <si>
+    <t>341-101156</t>
+  </si>
+  <si>
+    <t>341-10530</t>
+  </si>
+  <si>
+    <t>341-1309</t>
+  </si>
+  <si>
+    <t>341-1798</t>
+  </si>
+  <si>
+    <t>341-1799</t>
+  </si>
+  <si>
+    <t>341-1800</t>
+  </si>
+  <si>
+    <t>341-1801</t>
+  </si>
+  <si>
+    <t>341-1802</t>
+  </si>
+  <si>
+    <t>341-1803</t>
+  </si>
+  <si>
+    <t>341-1804</t>
+  </si>
+  <si>
+    <t>341-1806</t>
+  </si>
+  <si>
+    <t>341-1809</t>
+  </si>
+  <si>
+    <t>341-1810</t>
+  </si>
+  <si>
+    <t>341-1811</t>
+  </si>
+  <si>
+    <t>341-1812</t>
+  </si>
+  <si>
+    <t>341-1813</t>
+  </si>
+  <si>
+    <t>341-1821</t>
+  </si>
+  <si>
+    <t>341-1888</t>
+  </si>
+  <si>
+    <t>37-0343</t>
+  </si>
+  <si>
+    <t>37-0344</t>
+  </si>
+  <si>
+    <t>37-0668</t>
+  </si>
+  <si>
+    <t>37-0709</t>
+  </si>
+  <si>
+    <t>37-0710</t>
+  </si>
+  <si>
+    <t>37-0711</t>
+  </si>
+  <si>
+    <t>37-0713</t>
+  </si>
+  <si>
+    <t>37-0793</t>
+  </si>
+  <si>
+    <t>37-0797</t>
+  </si>
+  <si>
+    <t>37-0833</t>
+  </si>
+  <si>
+    <t>37-0863</t>
+  </si>
+  <si>
+    <t>37-0889</t>
+  </si>
+  <si>
+    <t>37-0890</t>
+  </si>
+  <si>
+    <t>37-0891</t>
+  </si>
+  <si>
+    <t>37-0893</t>
+  </si>
+  <si>
+    <t>37-0910</t>
+  </si>
+  <si>
+    <t>37-0960</t>
+  </si>
+  <si>
+    <t>37-0961</t>
+  </si>
+  <si>
+    <t>37-0962</t>
+  </si>
+  <si>
+    <t>37-0994</t>
+  </si>
+  <si>
+    <t>37-100944</t>
+  </si>
+  <si>
+    <t>37-101002</t>
+  </si>
+  <si>
+    <t>37-101085</t>
+  </si>
+  <si>
+    <t>37-1123</t>
+  </si>
+  <si>
+    <t>37-1124</t>
+  </si>
+  <si>
+    <t>37-1125</t>
+  </si>
+  <si>
+    <t>37-1127</t>
+  </si>
+  <si>
+    <t>37-1128</t>
+  </si>
+  <si>
+    <t>37-1129</t>
+  </si>
+  <si>
+    <t>37-1130</t>
+  </si>
+  <si>
+    <t>37-1131</t>
+  </si>
+  <si>
+    <t>37-1133</t>
+  </si>
+  <si>
+    <t>37-1143</t>
+  </si>
+  <si>
+    <t>37-1149</t>
+  </si>
+  <si>
+    <t>37-1157</t>
+  </si>
+  <si>
+    <t>37-1158</t>
+  </si>
+  <si>
+    <t>37-1302</t>
+  </si>
+  <si>
+    <t>37-1317</t>
+  </si>
+  <si>
+    <t>37-1318</t>
+  </si>
+  <si>
+    <t>37-1320</t>
+  </si>
+  <si>
+    <t>37-1321</t>
+  </si>
+  <si>
+    <t>37-1322</t>
+  </si>
+  <si>
+    <t>37-1331</t>
+  </si>
+  <si>
+    <t>37-1418</t>
+  </si>
+  <si>
+    <t>37-1419</t>
+  </si>
+  <si>
+    <t>37-1430</t>
+  </si>
+  <si>
+    <t>37-1432</t>
+  </si>
+  <si>
+    <t>37-1491</t>
+  </si>
+  <si>
+    <t>37-1495</t>
+  </si>
+  <si>
+    <t>37-1611</t>
+  </si>
+  <si>
+    <t>37-1666</t>
+  </si>
+  <si>
+    <t>37-1679</t>
+  </si>
+  <si>
+    <t>37-1680</t>
+  </si>
+  <si>
+    <t>37-1682</t>
+  </si>
+  <si>
+    <t>37-1685</t>
+  </si>
+  <si>
+    <t>37-1694</t>
+  </si>
+  <si>
+    <t>37-1790</t>
+  </si>
+  <si>
+    <t>37-1791</t>
+  </si>
+  <si>
+    <t>37-1792</t>
+  </si>
+  <si>
+    <t>37-1793</t>
+  </si>
+  <si>
+    <t>37-1843</t>
+  </si>
+  <si>
+    <t>37-1844</t>
+  </si>
+  <si>
+    <t>51-6756</t>
+  </si>
+  <si>
+    <t>53-100532</t>
+  </si>
+  <si>
+    <t>53-100630</t>
+  </si>
+  <si>
+    <t>53-100785</t>
+  </si>
+  <si>
+    <t>53-100825</t>
+  </si>
+  <si>
+    <t>53-100831</t>
+  </si>
+  <si>
+    <t>53-100840</t>
+  </si>
+  <si>
+    <t>53-100844</t>
+  </si>
+  <si>
+    <t>53-100845</t>
+  </si>
+  <si>
+    <t>53-100866</t>
+  </si>
+  <si>
+    <t>53-2527</t>
+  </si>
+  <si>
+    <t>53-2722</t>
+  </si>
+  <si>
+    <t>53-3541</t>
+  </si>
+  <si>
+    <t>53-4042</t>
+  </si>
+  <si>
+    <t>53-4197</t>
+  </si>
+  <si>
+    <t>68-100233</t>
+  </si>
+  <si>
+    <t>68-100311</t>
+  </si>
+  <si>
+    <t>68-100312</t>
+  </si>
+  <si>
+    <t>68-100313</t>
+  </si>
+  <si>
+    <t>68-100314</t>
+  </si>
+  <si>
+    <t>68-100315</t>
+  </si>
+  <si>
+    <t>68-100316</t>
+  </si>
+  <si>
+    <t>68-100317</t>
+  </si>
+  <si>
+    <t>68-100318</t>
+  </si>
+  <si>
+    <t>68-100319</t>
+  </si>
+  <si>
+    <t>68-100320</t>
+  </si>
+  <si>
+    <t>68-100507</t>
+  </si>
+  <si>
+    <t>68-100508</t>
+  </si>
+  <si>
+    <t>68-100509</t>
+  </si>
+  <si>
+    <t>68-100537</t>
+  </si>
+  <si>
+    <t>68-100560</t>
+  </si>
+  <si>
+    <t>68-100561</t>
+  </si>
+  <si>
+    <t>68-100969</t>
+  </si>
+  <si>
+    <t>68-100970</t>
+  </si>
+  <si>
+    <t>68-101176</t>
+  </si>
+  <si>
+    <t>68-101482</t>
+  </si>
+  <si>
+    <t>68-102021</t>
+  </si>
+  <si>
+    <t>68-102022</t>
+  </si>
+  <si>
+    <t>68-102023</t>
+  </si>
+  <si>
+    <t>68-102155</t>
+  </si>
+  <si>
+    <t>68-102156</t>
+  </si>
+  <si>
+    <t>68-102159</t>
+  </si>
+  <si>
+    <t>68-102160</t>
+  </si>
+  <si>
+    <t>68-102161</t>
+  </si>
+  <si>
+    <t>68-102162</t>
+  </si>
+  <si>
+    <t>68-102306</t>
+  </si>
+  <si>
+    <t>68-102307</t>
+  </si>
+  <si>
+    <t>68-102308</t>
+  </si>
+  <si>
+    <t>68-102309</t>
+  </si>
+  <si>
+    <t>68-102310</t>
+  </si>
+  <si>
+    <t>68-102359</t>
+  </si>
+  <si>
+    <t>68-102638</t>
+  </si>
+  <si>
+    <t>68-102640</t>
+  </si>
+  <si>
+    <t>68-102712</t>
+  </si>
+  <si>
+    <t>68-102737</t>
+  </si>
+  <si>
+    <t>68-102738</t>
+  </si>
+  <si>
+    <t>68-102745</t>
+  </si>
+  <si>
+    <t>68-102761</t>
+  </si>
+  <si>
+    <t>68-102765</t>
+  </si>
+  <si>
+    <t>68-102768</t>
+  </si>
+  <si>
+    <t>68-102792</t>
+  </si>
+  <si>
+    <t>68-102797</t>
+  </si>
+  <si>
+    <t>68-102872</t>
+  </si>
+  <si>
+    <t>68-103001</t>
+  </si>
+  <si>
+    <t>68-103083</t>
+  </si>
+  <si>
+    <t>68-103087</t>
+  </si>
+  <si>
+    <t>68-202160</t>
+  </si>
+  <si>
+    <t>68-4830</t>
+  </si>
+  <si>
+    <t>68-5025</t>
+  </si>
+  <si>
+    <t>68-5026</t>
+  </si>
+  <si>
+    <t>68-5027</t>
+  </si>
+  <si>
+    <t>68-5028</t>
+  </si>
+  <si>
+    <t>68-5391</t>
+  </si>
+  <si>
+    <t>68-5910</t>
+  </si>
+  <si>
+    <t>68-6011</t>
+  </si>
+  <si>
+    <t>68-6012</t>
+  </si>
+  <si>
+    <t>68-6013</t>
+  </si>
+  <si>
+    <t>68-6014</t>
+  </si>
+  <si>
+    <t>68-6015</t>
+  </si>
+  <si>
+    <t>68-6016</t>
+  </si>
+  <si>
+    <t>68-6017</t>
+  </si>
+  <si>
+    <t>68-6018</t>
+  </si>
+  <si>
+    <t>68-6019</t>
+  </si>
+  <si>
+    <t>68-6020</t>
+  </si>
+  <si>
+    <t>68-6021</t>
+  </si>
+  <si>
+    <t>68-6022</t>
+  </si>
+  <si>
+    <t>68-6023</t>
+  </si>
+  <si>
+    <t>68-6024</t>
+  </si>
+  <si>
+    <t>68-6026</t>
+  </si>
+  <si>
+    <t>68-6027</t>
+  </si>
+  <si>
+    <t>68-6028</t>
+  </si>
+  <si>
+    <t>68-6029</t>
+  </si>
+  <si>
+    <t>68-6030</t>
+  </si>
+  <si>
+    <t>68-6031</t>
+  </si>
+  <si>
+    <t>68-6032</t>
+  </si>
+  <si>
+    <t>68-6033</t>
+  </si>
+  <si>
+    <t>68-6034</t>
+  </si>
+  <si>
+    <t>68-6035</t>
+  </si>
+  <si>
+    <t>68-6036</t>
+  </si>
+  <si>
+    <t>68-6037</t>
+  </si>
+  <si>
+    <t>68-6038</t>
+  </si>
+  <si>
+    <t>68-6039</t>
+  </si>
+  <si>
+    <t>68-6040</t>
+  </si>
+  <si>
+    <t>68-6041</t>
+  </si>
+  <si>
+    <t>68-6042</t>
+  </si>
+  <si>
+    <t>68-6043</t>
+  </si>
+  <si>
+    <t>68-6047</t>
+  </si>
+  <si>
+    <t>68-6048</t>
+  </si>
+  <si>
+    <t>68-6080</t>
+  </si>
+  <si>
+    <t>68-6241</t>
+  </si>
+  <si>
+    <t>68-6276</t>
+  </si>
+  <si>
+    <t>68-6322</t>
+  </si>
+  <si>
+    <t>68-6559</t>
+  </si>
+  <si>
+    <t>69-0328</t>
+  </si>
+  <si>
+    <t>69-100140</t>
+  </si>
+  <si>
+    <t>69-100141</t>
+  </si>
+  <si>
+    <t>69-100144</t>
+  </si>
+  <si>
+    <t>69-100145</t>
+  </si>
+  <si>
+    <t>69-100146</t>
+  </si>
+  <si>
+    <t>69-100396</t>
+  </si>
+  <si>
+    <t>69-100397</t>
+  </si>
+  <si>
+    <t>69-100398</t>
+  </si>
+  <si>
+    <t>69-100430</t>
+  </si>
+  <si>
+    <t>69-100443</t>
+  </si>
+  <si>
+    <t>69-100481</t>
+  </si>
+  <si>
+    <t>69-100482</t>
+  </si>
+  <si>
+    <t>69-100562</t>
+  </si>
+  <si>
+    <t>69-100597</t>
+  </si>
+  <si>
+    <t>69-100619</t>
+  </si>
+  <si>
+    <t>69-100701</t>
+  </si>
+  <si>
+    <t>69-100706</t>
+  </si>
+  <si>
+    <t>69-100711</t>
+  </si>
+  <si>
+    <t>69-100712</t>
+  </si>
+  <si>
+    <t>69-100736</t>
+  </si>
+  <si>
+    <t>69-100803</t>
+  </si>
+  <si>
+    <t>69-100840</t>
+  </si>
+  <si>
+    <t>69-100917</t>
+  </si>
+  <si>
+    <t>69-1296</t>
+  </si>
+  <si>
+    <t>69-1550</t>
+  </si>
+  <si>
+    <t>69-2108</t>
+  </si>
+  <si>
+    <t>69-2455</t>
+  </si>
+  <si>
+    <t>69-2467</t>
+  </si>
+  <si>
+    <t>69-2476</t>
+  </si>
+  <si>
+    <t>69-2477</t>
+  </si>
+  <si>
+    <t>69-2645</t>
+  </si>
+  <si>
+    <t>69-2661</t>
+  </si>
+  <si>
+    <t>69-2781</t>
+  </si>
+  <si>
+    <t>700-113767</t>
+  </si>
+  <si>
+    <t>700-114699</t>
+  </si>
+  <si>
+    <t>700-119159</t>
+  </si>
+  <si>
+    <t>700-121480</t>
+  </si>
+  <si>
+    <t>700-122466</t>
+  </si>
+  <si>
+    <t>700-123727</t>
+  </si>
+  <si>
+    <t>700-140817</t>
+  </si>
+  <si>
+    <t>700-24011</t>
+  </si>
+  <si>
+    <t>700-24800</t>
+  </si>
+  <si>
+    <t>700-30247</t>
+  </si>
+  <si>
+    <t>700-37297</t>
+  </si>
+  <si>
+    <t>700-40817</t>
+  </si>
+  <si>
+    <t>700-45560</t>
+  </si>
+  <si>
+    <t>72-0259</t>
+  </si>
+  <si>
+    <t>72-0460</t>
+  </si>
+  <si>
+    <t>72-0557</t>
+  </si>
+  <si>
+    <t>72-0746</t>
   </si>
   <si>
     <t>72-0771</t>
   </si>
   <si>
-    <t>72-0772</t>
-  </si>
-  <si>
-    <t>72-0773</t>
-  </si>
-  <si>
-    <t>72-0774</t>
-  </si>
-  <si>
-    <t>72-101260</t>
-  </si>
-  <si>
-    <t>72-101670</t>
-  </si>
-  <si>
-    <t>72-101856</t>
-  </si>
-  <si>
-    <t>72-101857</t>
+    <t>72-101029</t>
+  </si>
+  <si>
+    <t>72-1483</t>
   </si>
   <si>
     <t>72-3383</t>
   </si>
   <si>
-    <t>72-5200</t>
-  </si>
-  <si>
-    <t>72-5201</t>
-  </si>
-  <si>
-    <t>72-5203</t>
-  </si>
-  <si>
-    <t>72-5204</t>
-  </si>
-  <si>
-    <t>72-5205</t>
-  </si>
-  <si>
-    <t>72-5206</t>
-  </si>
-  <si>
-    <t>72-5207</t>
-  </si>
-  <si>
-    <t>72-5208</t>
-  </si>
-  <si>
-    <t>72-5209</t>
-  </si>
-  <si>
-    <t>72-5210</t>
-  </si>
-  <si>
-    <t>72-5595</t>
-  </si>
-  <si>
-    <t>73-11809</t>
-  </si>
-  <si>
-    <t>73-11810</t>
-  </si>
-  <si>
-    <t>73-15664</t>
+    <t>72-3673</t>
+  </si>
+  <si>
+    <t>72-3674</t>
+  </si>
+  <si>
+    <t>72-3675</t>
+  </si>
+  <si>
+    <t>72-3676</t>
+  </si>
+  <si>
+    <t>72-3677</t>
+  </si>
+  <si>
+    <t>72-3678</t>
+  </si>
+  <si>
+    <t>72-3679</t>
+  </si>
+  <si>
+    <t>72-3680</t>
+  </si>
+  <si>
+    <t>72-3681</t>
+  </si>
+  <si>
+    <t>72-3682</t>
+  </si>
+  <si>
+    <t>72-4161</t>
+  </si>
+  <si>
+    <t>72-4254</t>
+  </si>
+  <si>
+    <t>72-4387</t>
+  </si>
+  <si>
+    <t>72-4388</t>
+  </si>
+  <si>
+    <t>72-4741</t>
+  </si>
+  <si>
+    <t>72-4879</t>
+  </si>
+  <si>
+    <t>73-100480</t>
+  </si>
+  <si>
+    <t>73-101318</t>
+  </si>
+  <si>
+    <t>73-101487</t>
+  </si>
+  <si>
+    <t>73-102373</t>
+  </si>
+  <si>
+    <t>73-16218</t>
+  </si>
+  <si>
+    <t>73-16614</t>
+  </si>
+  <si>
+    <t>73-19544</t>
+  </si>
+  <si>
+    <t>73-19545</t>
+  </si>
+  <si>
+    <t>73-19661</t>
+  </si>
+  <si>
+    <t>73-20505</t>
+  </si>
+  <si>
+    <t>73-20506</t>
+  </si>
+  <si>
+    <t>73-20507</t>
+  </si>
+  <si>
+    <t>73-20641</t>
+  </si>
+  <si>
+    <t>73-20663</t>
+  </si>
+  <si>
+    <t>73-20667</t>
+  </si>
+  <si>
+    <t>74-102192</t>
   </si>
   <si>
     <t>74-104476</t>
   </si>
   <si>
-    <t>74-104759</t>
-  </si>
-  <si>
-    <t>74-104761</t>
-  </si>
-  <si>
-    <t>74-105090</t>
-  </si>
-  <si>
-    <t>74-105093</t>
-  </si>
-  <si>
-    <t>74-105848</t>
-  </si>
-  <si>
-    <t>74-106063</t>
-  </si>
-  <si>
-    <t>74-122079</t>
-  </si>
-  <si>
-    <t>74-122742</t>
-  </si>
-  <si>
-    <t>74-122744</t>
-  </si>
-  <si>
-    <t>74-124657</t>
-  </si>
-  <si>
-    <t>74-12502</t>
-  </si>
-  <si>
-    <t>74-13011</t>
-  </si>
-  <si>
-    <t>74-13012</t>
-  </si>
-  <si>
-    <t>74-13027</t>
-  </si>
-  <si>
-    <t>80-9984</t>
-  </si>
-  <si>
-    <t>800-102383</t>
-  </si>
-  <si>
-    <t>800-102657</t>
-  </si>
-  <si>
-    <t>800-105429</t>
-  </si>
-  <si>
-    <t>800-105675</t>
-  </si>
-  <si>
-    <t>800-105812</t>
-  </si>
-  <si>
-    <t>800-107570</t>
-  </si>
-  <si>
-    <t>800-107633</t>
-  </si>
-  <si>
-    <t>800-107996</t>
-  </si>
-  <si>
-    <t>800-108831</t>
-  </si>
-  <si>
-    <t>800-30541</t>
-  </si>
-  <si>
-    <t>800-30677</t>
-  </si>
-  <si>
-    <t>800-30761</t>
-  </si>
-  <si>
-    <t>800-31386</t>
-  </si>
-  <si>
-    <t>800-33585</t>
-  </si>
-  <si>
-    <t>800-33781</t>
-  </si>
-  <si>
-    <t>800-35052</t>
-  </si>
-  <si>
-    <t>800-35159</t>
-  </si>
-  <si>
-    <t>800-36336</t>
-  </si>
-  <si>
-    <t>800-36608</t>
-  </si>
-  <si>
-    <t>800-37280</t>
-  </si>
-  <si>
-    <t>800-37542</t>
-  </si>
-  <si>
-    <t>800-37619</t>
-  </si>
-  <si>
-    <t>800-37811</t>
-  </si>
-  <si>
-    <t>800-37884</t>
-  </si>
-  <si>
-    <t>800-37932</t>
-  </si>
-  <si>
-    <t>800-37933</t>
-  </si>
-  <si>
-    <t>800-38135</t>
+    <t>74-105284</t>
+  </si>
+  <si>
+    <t>74-105285</t>
+  </si>
+  <si>
+    <t>74-105889</t>
+  </si>
+  <si>
+    <t>74-105891</t>
+  </si>
+  <si>
+    <t>74-10696</t>
+  </si>
+  <si>
+    <t>74-10697</t>
+  </si>
+  <si>
+    <t>74-11120</t>
+  </si>
+  <si>
+    <t>74-112698</t>
+  </si>
+  <si>
+    <t>74-112708</t>
+  </si>
+  <si>
+    <t>74-114895</t>
+  </si>
+  <si>
+    <t>74-115081</t>
+  </si>
+  <si>
+    <t>74-115082</t>
+  </si>
+  <si>
+    <t>74-115425</t>
+  </si>
+  <si>
+    <t>74-115426</t>
+  </si>
+  <si>
+    <t>74-115427</t>
+  </si>
+  <si>
+    <t>74-115923</t>
+  </si>
+  <si>
+    <t>74-118716</t>
+  </si>
+  <si>
+    <t>74-12043</t>
+  </si>
+  <si>
+    <t>74-122538</t>
+  </si>
+  <si>
+    <t>74-122542</t>
+  </si>
+  <si>
+    <t>74-124767</t>
+  </si>
+  <si>
+    <t>74-12619</t>
+  </si>
+  <si>
+    <t>74-12620</t>
+  </si>
+  <si>
+    <t>74-12621</t>
+  </si>
+  <si>
+    <t>74-126238</t>
+  </si>
+  <si>
+    <t>74-126240</t>
+  </si>
+  <si>
+    <t>74-3072</t>
+  </si>
+  <si>
+    <t>74-3093</t>
+  </si>
+  <si>
+    <t>74-3095</t>
+  </si>
+  <si>
+    <t>74-3127</t>
+  </si>
+  <si>
+    <t>74-7617</t>
+  </si>
+  <si>
+    <t>74-9474</t>
+  </si>
+  <si>
+    <t>800-101373</t>
+  </si>
+  <si>
+    <t>800-103443</t>
+  </si>
+  <si>
+    <t>800-103446</t>
+  </si>
+  <si>
+    <t>800-103449</t>
+  </si>
+  <si>
+    <t>800-103729</t>
+  </si>
+  <si>
+    <t>800-103734</t>
+  </si>
+  <si>
+    <t>800-103978</t>
+  </si>
+  <si>
+    <t>800-104554</t>
+  </si>
+  <si>
+    <t>800-104709</t>
+  </si>
+  <si>
+    <t>800-104844</t>
+  </si>
+  <si>
+    <t>800-104965</t>
+  </si>
+  <si>
+    <t>800-105024</t>
+  </si>
+  <si>
+    <t>800-105025</t>
+  </si>
+  <si>
+    <t>800-105842</t>
+  </si>
+  <si>
+    <t>800-105843</t>
+  </si>
+  <si>
+    <t>800-105845</t>
+  </si>
+  <si>
+    <t>800-105848</t>
+  </si>
+  <si>
+    <t>800-105849</t>
+  </si>
+  <si>
+    <t>800-105872</t>
+  </si>
+  <si>
+    <t>800-105896</t>
+  </si>
+  <si>
+    <t>800-105923</t>
+  </si>
+  <si>
+    <t>800-105976</t>
+  </si>
+  <si>
+    <t>800-106031</t>
+  </si>
+  <si>
+    <t>800-106054</t>
+  </si>
+  <si>
+    <t>800-106055</t>
+  </si>
+  <si>
+    <t>800-106104</t>
+  </si>
+  <si>
+    <t>800-106137</t>
+  </si>
+  <si>
+    <t>800-106382</t>
+  </si>
+  <si>
+    <t>800-106401</t>
+  </si>
+  <si>
+    <t>800-106424</t>
+  </si>
+  <si>
+    <t>800-106454</t>
+  </si>
+  <si>
+    <t>800-106689</t>
+  </si>
+  <si>
+    <t>800-106745</t>
+  </si>
+  <si>
+    <t>800-106854</t>
+  </si>
+  <si>
+    <t>800-107221</t>
+  </si>
+  <si>
+    <t>800-107229</t>
+  </si>
+  <si>
+    <t>800-107395</t>
+  </si>
+  <si>
+    <t>800-107459</t>
+  </si>
+  <si>
+    <t>800-107460</t>
+  </si>
+  <si>
+    <t>800-107461</t>
+  </si>
+  <si>
+    <t>800-107474</t>
+  </si>
+  <si>
+    <t>800-107488</t>
+  </si>
+  <si>
+    <t>800-107489</t>
+  </si>
+  <si>
+    <t>800-107697</t>
+  </si>
+  <si>
+    <t>800-107698</t>
+  </si>
+  <si>
+    <t>800-107699</t>
+  </si>
+  <si>
+    <t>800-108004</t>
+  </si>
+  <si>
+    <t>800-108307</t>
+  </si>
+  <si>
+    <t>800-108443</t>
+  </si>
+  <si>
+    <t>800-108645</t>
+  </si>
+  <si>
+    <t>800-108646</t>
+  </si>
+  <si>
+    <t>800-108756</t>
+  </si>
+  <si>
+    <t>800-108757</t>
+  </si>
+  <si>
+    <t>800-108769</t>
+  </si>
+  <si>
+    <t>800-108772</t>
+  </si>
+  <si>
+    <t>800-108782</t>
+  </si>
+  <si>
+    <t>800-108783</t>
+  </si>
+  <si>
+    <t>800-108784</t>
+  </si>
+  <si>
+    <t>800-108803</t>
+  </si>
+  <si>
+    <t>800-108866</t>
+  </si>
+  <si>
+    <t>800-108874</t>
+  </si>
+  <si>
+    <t>800-109103</t>
+  </si>
+  <si>
+    <t>800-109177</t>
+  </si>
+  <si>
+    <t>800-109186</t>
+  </si>
+  <si>
+    <t>800-109421</t>
+  </si>
+  <si>
+    <t>800-109426</t>
+  </si>
+  <si>
+    <t>800-109482</t>
+  </si>
+  <si>
+    <t>800-133606</t>
+  </si>
+  <si>
+    <t>800-139459</t>
+  </si>
+  <si>
+    <t>800-140805</t>
+  </si>
+  <si>
+    <t>800-140806</t>
+  </si>
+  <si>
+    <t>800-140807</t>
+  </si>
+  <si>
+    <t>800-141239</t>
+  </si>
+  <si>
+    <t>800-141241</t>
+  </si>
+  <si>
+    <t>800-141243</t>
+  </si>
+  <si>
+    <t>800-141681</t>
+  </si>
+  <si>
+    <t>800-203729</t>
+  </si>
+  <si>
+    <t>800-205024</t>
+  </si>
+  <si>
+    <t>800-205025</t>
+  </si>
+  <si>
+    <t>800-27645</t>
+  </si>
+  <si>
+    <t>800-27962</t>
+  </si>
+  <si>
+    <t>800-28989</t>
+  </si>
+  <si>
+    <t>800-28993</t>
+  </si>
+  <si>
+    <t>800-30368</t>
+  </si>
+  <si>
+    <t>800-31929</t>
+  </si>
+  <si>
+    <t>800-32622</t>
+  </si>
+  <si>
+    <t>800-32912</t>
+  </si>
+  <si>
+    <t>800-33606</t>
+  </si>
+  <si>
+    <t>800-35614</t>
+  </si>
+  <si>
+    <t>800-35616</t>
+  </si>
+  <si>
+    <t>800-35618</t>
+  </si>
+  <si>
+    <t>800-35620</t>
+  </si>
+  <si>
+    <t>800-35622</t>
+  </si>
+  <si>
+    <t>800-36467</t>
+  </si>
+  <si>
+    <t>800-36478</t>
+  </si>
+  <si>
+    <t>800-36479</t>
+  </si>
+  <si>
+    <t>800-36480</t>
+  </si>
+  <si>
+    <t>800-36481</t>
+  </si>
+  <si>
+    <t>800-36482</t>
+  </si>
+  <si>
+    <t>800-36483</t>
+  </si>
+  <si>
+    <t>800-36484</t>
+  </si>
+  <si>
+    <t>800-36485</t>
+  </si>
+  <si>
+    <t>800-36486</t>
+  </si>
+  <si>
+    <t>800-36487</t>
+  </si>
+  <si>
+    <t>800-36488</t>
+  </si>
+  <si>
+    <t>800-36489</t>
+  </si>
+  <si>
+    <t>800-36490</t>
+  </si>
+  <si>
+    <t>800-36491</t>
+  </si>
+  <si>
+    <t>800-36492</t>
+  </si>
+  <si>
+    <t>800-36493</t>
+  </si>
+  <si>
+    <t>800-36494</t>
+  </si>
+  <si>
+    <t>800-36495</t>
+  </si>
+  <si>
+    <t>800-36496</t>
+  </si>
+  <si>
+    <t>800-36497</t>
+  </si>
+  <si>
+    <t>800-36498</t>
+  </si>
+  <si>
+    <t>800-36499</t>
+  </si>
+  <si>
+    <t>800-36500</t>
+  </si>
+  <si>
+    <t>800-36501</t>
+  </si>
+  <si>
+    <t>800-36502</t>
+  </si>
+  <si>
+    <t>800-36503</t>
+  </si>
+  <si>
+    <t>800-36504</t>
+  </si>
+  <si>
+    <t>800-36505</t>
+  </si>
+  <si>
+    <t>800-36506</t>
+  </si>
+  <si>
+    <t>800-36507</t>
+  </si>
+  <si>
+    <t>800-36508</t>
+  </si>
+  <si>
+    <t>800-36509</t>
+  </si>
+  <si>
+    <t>800-36532</t>
+  </si>
+  <si>
+    <t>800-37207</t>
+  </si>
+  <si>
+    <t>800-37538</t>
+  </si>
+  <si>
+    <t>800-37663</t>
+  </si>
+  <si>
+    <t>800-37692</t>
+  </si>
+  <si>
+    <t>800-37693</t>
+  </si>
+  <si>
+    <t>800-37807</t>
+  </si>
+  <si>
+    <t>800-38076</t>
+  </si>
+  <si>
+    <t>800-38382</t>
+  </si>
+  <si>
+    <t>800-38383</t>
+  </si>
+  <si>
+    <t>800-38518</t>
+  </si>
+  <si>
+    <t>800-38530</t>
   </si>
   <si>
     <t>800-38531</t>
   </si>
   <si>
+    <t>800-38532</t>
+  </si>
+  <si>
+    <t>800-38533</t>
+  </si>
+  <si>
+    <t>800-38534</t>
+  </si>
+  <si>
+    <t>800-38535</t>
+  </si>
+  <si>
+    <t>800-38536</t>
+  </si>
+  <si>
+    <t>800-38537</t>
+  </si>
+  <si>
+    <t>800-38596</t>
+  </si>
+  <si>
+    <t>800-38597</t>
+  </si>
+  <si>
+    <t>800-38606</t>
+  </si>
+  <si>
     <t>800-38659</t>
   </si>
   <si>
-    <t>800-38684</t>
-  </si>
-  <si>
-    <t>800-38686</t>
-  </si>
-  <si>
-    <t>800-38894</t>
-  </si>
-  <si>
-    <t>800-39159</t>
+    <t>800-38821</t>
+  </si>
+  <si>
+    <t>800-38822</t>
+  </si>
+  <si>
+    <t>800-39042</t>
+  </si>
+  <si>
+    <t>800-39201</t>
+  </si>
+  <si>
+    <t>800-39402</t>
+  </si>
+  <si>
+    <t>800-39452</t>
+  </si>
+  <si>
+    <t>800-39453</t>
   </si>
   <si>
     <t>800-39454</t>
   </si>
   <si>
-    <t>800-39544</t>
-  </si>
-  <si>
-    <t>800-40064</t>
-  </si>
-  <si>
-    <t>800-40377</t>
+    <t>800-39459</t>
+  </si>
+  <si>
+    <t>800-39855</t>
+  </si>
+  <si>
+    <t>800-39968</t>
+  </si>
+  <si>
+    <t>800-40005</t>
+  </si>
+  <si>
+    <t>800-40006</t>
+  </si>
+  <si>
+    <t>800-40007</t>
+  </si>
+  <si>
+    <t>800-40008</t>
+  </si>
+  <si>
+    <t>800-40037</t>
+  </si>
+  <si>
+    <t>800-40039</t>
+  </si>
+  <si>
+    <t>800-40213</t>
+  </si>
+  <si>
+    <t>800-40214</t>
+  </si>
+  <si>
+    <t>800-40215</t>
+  </si>
+  <si>
+    <t>800-40236</t>
+  </si>
+  <si>
+    <t>800-40237</t>
+  </si>
+  <si>
+    <t>800-40238</t>
+  </si>
+  <si>
+    <t>800-40596</t>
+  </si>
+  <si>
+    <t>800-40597</t>
+  </si>
+  <si>
+    <t>800-40805</t>
+  </si>
+  <si>
+    <t>800-40806</t>
+  </si>
+  <si>
+    <t>800-40807</t>
   </si>
   <si>
     <t>800-41009</t>
@@ -820,19 +2425,76 @@
     <t>800-41025</t>
   </si>
   <si>
-    <t>800-41216</t>
-  </si>
-  <si>
-    <t>800-42228</t>
-  </si>
-  <si>
-    <t>800-42527</t>
-  </si>
-  <si>
-    <t>800-42655</t>
-  </si>
-  <si>
-    <t>800-42727</t>
+    <t>800-41027</t>
+  </si>
+  <si>
+    <t>800-41029</t>
+  </si>
+  <si>
+    <t>800-41229</t>
+  </si>
+  <si>
+    <t>800-41231</t>
+  </si>
+  <si>
+    <t>800-41233</t>
+  </si>
+  <si>
+    <t>800-41235</t>
+  </si>
+  <si>
+    <t>800-41238</t>
+  </si>
+  <si>
+    <t>800-41239</t>
+  </si>
+  <si>
+    <t>800-41241</t>
+  </si>
+  <si>
+    <t>800-41243</t>
+  </si>
+  <si>
+    <t>800-41244</t>
+  </si>
+  <si>
+    <t>800-41246</t>
+  </si>
+  <si>
+    <t>800-41257</t>
+  </si>
+  <si>
+    <t>800-41268</t>
+  </si>
+  <si>
+    <t>800-41281</t>
+  </si>
+  <si>
+    <t>800-41283</t>
+  </si>
+  <si>
+    <t>800-41285</t>
+  </si>
+  <si>
+    <t>800-41287</t>
+  </si>
+  <si>
+    <t>800-41289</t>
+  </si>
+  <si>
+    <t>800-41681</t>
+  </si>
+  <si>
+    <t>800-42664</t>
+  </si>
+  <si>
+    <t>800-42704</t>
+  </si>
+  <si>
+    <t>800-42705</t>
+  </si>
+  <si>
+    <t>800-42753</t>
   </si>
   <si>
     <t>800-42799</t>
@@ -841,103 +2503,394 @@
     <t>800-42801</t>
   </si>
   <si>
-    <t>800-42852</t>
+    <t>800-42802</t>
   </si>
   <si>
     <t>800-42856</t>
   </si>
   <si>
+    <t>800-42910</t>
+  </si>
+  <si>
+    <t>800-42915</t>
+  </si>
+  <si>
+    <t>800-42925</t>
+  </si>
+  <si>
     <t>800-43297</t>
   </si>
   <si>
-    <t>800-43376</t>
-  </si>
-  <si>
-    <t>800-43520</t>
-  </si>
-  <si>
-    <t>800-43981</t>
-  </si>
-  <si>
-    <t>800-43982</t>
-  </si>
-  <si>
-    <t>800-43983</t>
-  </si>
-  <si>
-    <t>800-45522</t>
-  </si>
-  <si>
-    <t>800-46136</t>
-  </si>
-  <si>
-    <t>800-46268</t>
-  </si>
-  <si>
-    <t>800-46311</t>
-  </si>
-  <si>
-    <t>800-46827</t>
+    <t>800-43298</t>
+  </si>
+  <si>
+    <t>800-43300</t>
+  </si>
+  <si>
+    <t>800-43301</t>
+  </si>
+  <si>
+    <t>800-43302</t>
+  </si>
+  <si>
+    <t>800-43303</t>
+  </si>
+  <si>
+    <t>800-43601</t>
+  </si>
+  <si>
+    <t>800-43874</t>
+  </si>
+  <si>
+    <t>800-44092</t>
+  </si>
+  <si>
+    <t>800-44681</t>
+  </si>
+  <si>
+    <t>800-44730</t>
+  </si>
+  <si>
+    <t>800-45021</t>
+  </si>
+  <si>
+    <t>800-45022</t>
+  </si>
+  <si>
+    <t>800-45127</t>
+  </si>
+  <si>
+    <t>800-45162</t>
+  </si>
+  <si>
+    <t>800-45187</t>
+  </si>
+  <si>
+    <t>800-45690</t>
+  </si>
+  <si>
+    <t>800-46111</t>
+  </si>
+  <si>
+    <t>800-46197</t>
+  </si>
+  <si>
+    <t>800-46198</t>
+  </si>
+  <si>
+    <t>800-46237</t>
+  </si>
+  <si>
+    <t>800-46393</t>
+  </si>
+  <si>
+    <t>800-46395</t>
+  </si>
+  <si>
+    <t>800-46396</t>
+  </si>
+  <si>
+    <t>800-46397</t>
+  </si>
+  <si>
+    <t>800-46403</t>
+  </si>
+  <si>
+    <t>800-46409</t>
+  </si>
+  <si>
+    <t>800-46509</t>
+  </si>
+  <si>
+    <t>800-46562</t>
+  </si>
+  <si>
+    <t>800-46685</t>
+  </si>
+  <si>
+    <t>800-46745</t>
+  </si>
+  <si>
+    <t>800-46811</t>
+  </si>
+  <si>
+    <t>800-46819</t>
+  </si>
+  <si>
+    <t>800-46822</t>
+  </si>
+  <si>
+    <t>800-46853</t>
+  </si>
+  <si>
+    <t>800-46854</t>
+  </si>
+  <si>
+    <t>800-46884</t>
+  </si>
+  <si>
+    <t>800-46937</t>
+  </si>
+  <si>
+    <t>800-46961</t>
+  </si>
+  <si>
+    <t>800-47095</t>
+  </si>
+  <si>
+    <t>800-47189</t>
+  </si>
+  <si>
+    <t>800-47280</t>
+  </si>
+  <si>
+    <t>800-47313</t>
   </si>
   <si>
     <t>800-47354</t>
   </si>
   <si>
-    <t>800-50017</t>
-  </si>
-  <si>
-    <t>800-50095</t>
-  </si>
-  <si>
-    <t>800-50096</t>
-  </si>
-  <si>
-    <t>WNBU_group_2</t>
-  </si>
-  <si>
-    <t>WNBU_group_3</t>
-  </si>
-  <si>
-    <t>68-4259</t>
-  </si>
-  <si>
-    <t>68-4260</t>
-  </si>
-  <si>
-    <t>68-4873</t>
-  </si>
-  <si>
-    <t>68-4908</t>
-  </si>
-  <si>
-    <t>68-4909</t>
-  </si>
-  <si>
-    <t>68-4911</t>
-  </si>
-  <si>
-    <t>68-4914</t>
-  </si>
-  <si>
-    <t>68-4917</t>
-  </si>
-  <si>
-    <t>68-5053</t>
-  </si>
-  <si>
-    <t>68-6153</t>
-  </si>
-  <si>
-    <t>68-6225</t>
-  </si>
-  <si>
-    <t>68-6520</t>
-  </si>
-  <si>
-    <t>68-6558</t>
-  </si>
-  <si>
-    <t>68-7214</t>
+    <t>800-47498</t>
+  </si>
+  <si>
+    <t>800-47524</t>
+  </si>
+  <si>
+    <t>800-47525</t>
+  </si>
+  <si>
+    <t>800-47631</t>
+  </si>
+  <si>
+    <t>800-47688</t>
+  </si>
+  <si>
+    <t>800-47972</t>
+  </si>
+  <si>
+    <t>800-48025</t>
+  </si>
+  <si>
+    <t>800-48026</t>
+  </si>
+  <si>
+    <t>800-48081</t>
+  </si>
+  <si>
+    <t>800-48088</t>
+  </si>
+  <si>
+    <t>800-48089</t>
+  </si>
+  <si>
+    <t>800-48169</t>
+  </si>
+  <si>
+    <t>800-48419</t>
+  </si>
+  <si>
+    <t>800-48421</t>
+  </si>
+  <si>
+    <t>800-48437</t>
+  </si>
+  <si>
+    <t>800-48443</t>
+  </si>
+  <si>
+    <t>800-48478</t>
+  </si>
+  <si>
+    <t>800-48486</t>
+  </si>
+  <si>
+    <t>800-48864</t>
+  </si>
+  <si>
+    <t>800-48880</t>
+  </si>
+  <si>
+    <t>800-48908</t>
+  </si>
+  <si>
+    <t>800-49120</t>
+  </si>
+  <si>
+    <t>800-49187</t>
+  </si>
+  <si>
+    <t>800-49204</t>
+  </si>
+  <si>
+    <t>800-49207</t>
+  </si>
+  <si>
+    <t>800-49212</t>
+  </si>
+  <si>
+    <t>800-49213</t>
+  </si>
+  <si>
+    <t>800-49214</t>
+  </si>
+  <si>
+    <t>800-49230</t>
+  </si>
+  <si>
+    <t>800-49235</t>
+  </si>
+  <si>
+    <t>800-49268</t>
+  </si>
+  <si>
+    <t>800-49291</t>
+  </si>
+  <si>
+    <t>800-49316</t>
+  </si>
+  <si>
+    <t>800-49320</t>
+  </si>
+  <si>
+    <t>800-49366</t>
+  </si>
+  <si>
+    <t>800-49368</t>
+  </si>
+  <si>
+    <t>800-49369</t>
+  </si>
+  <si>
+    <t>800-49425</t>
+  </si>
+  <si>
+    <t>800-49492</t>
+  </si>
+  <si>
+    <t>800-49493</t>
+  </si>
+  <si>
+    <t>800-49522</t>
+  </si>
+  <si>
+    <t>800-49533</t>
+  </si>
+  <si>
+    <t>800-49550</t>
+  </si>
+  <si>
+    <t>800-49553</t>
+  </si>
+  <si>
+    <t>800-49554</t>
+  </si>
+  <si>
+    <t>800-49555</t>
+  </si>
+  <si>
+    <t>800-49582</t>
+  </si>
+  <si>
+    <t>800-49590</t>
+  </si>
+  <si>
+    <t>800-49616</t>
+  </si>
+  <si>
+    <t>800-49626</t>
+  </si>
+  <si>
+    <t>800-49627</t>
+  </si>
+  <si>
+    <t>800-49628</t>
+  </si>
+  <si>
+    <t>800-49629</t>
+  </si>
+  <si>
+    <t>800-49630</t>
+  </si>
+  <si>
+    <t>800-49638</t>
+  </si>
+  <si>
+    <t>800-49639</t>
+  </si>
+  <si>
+    <t>800-49647</t>
+  </si>
+  <si>
+    <t>800-49759</t>
+  </si>
+  <si>
+    <t>800-49842</t>
+  </si>
+  <si>
+    <t>800-49902</t>
+  </si>
+  <si>
+    <t>800-49921</t>
+  </si>
+  <si>
+    <t>800-49952</t>
+  </si>
+  <si>
+    <t>800-49996</t>
+  </si>
+  <si>
+    <t>800-49997</t>
+  </si>
+  <si>
+    <t>800-50028</t>
+  </si>
+  <si>
+    <t>800-50085</t>
+  </si>
+  <si>
+    <t>800-50087</t>
+  </si>
+  <si>
+    <t>800-50168</t>
+  </si>
+  <si>
+    <t>800-50268</t>
+  </si>
+  <si>
+    <t>800-50269</t>
+  </si>
+  <si>
+    <t>800-50271</t>
+  </si>
+  <si>
+    <t>800-50272</t>
+  </si>
+  <si>
+    <t>800-50340</t>
+  </si>
+  <si>
+    <t>800-50343</t>
+  </si>
+  <si>
+    <t>800-50403</t>
+  </si>
+  <si>
+    <t>800-50427</t>
+  </si>
+  <si>
+    <t>800-50428</t>
+  </si>
+  <si>
+    <t>800-50437</t>
+  </si>
+  <si>
+    <t>800-50438</t>
+  </si>
+  <si>
+    <t>800-50445</t>
+  </si>
+  <si>
+    <t>800-50446</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +3248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B959"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1866,7 +3819,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1882,7 +3835,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1978,7 +3931,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2010,7 +3963,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2098,7 +4051,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2122,7 +4075,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2154,7 +4107,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2530,7 +4483,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2586,7 +4539,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2602,7 +4555,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2682,7 +4635,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2906,7 +4859,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2962,7 +4915,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2970,7 +4923,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3034,7 +4987,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3146,7 +5099,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3386,7 +5339,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3602,7 +5555,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3610,7 +5563,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3634,7 +5587,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3762,6 +5715,5214 @@
         <v>307</v>
       </c>
       <c r="B308" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B309" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B310" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B311" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B312" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B313" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B314" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B315" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B316" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B317" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B318" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B319" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B320" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B321" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B322" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B323" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B324" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B325" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B326" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B327" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B328" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B329" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B330" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B331" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B332" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B333" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B334" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B335" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B336" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B337" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B338" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B339" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B340" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B341" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B342" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B343" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B344" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B345" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B346" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B347" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B349" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B350" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B351" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B352" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B353" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B354" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B357" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B359" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B363" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B364" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B365" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B366" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B368" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B372" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B373" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B378" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B379" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B382" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B383" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B384" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B390" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B392" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B393" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B436" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B437" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B440" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B443" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B447" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B454" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B456" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B463" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B472" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B473" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B475" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B476" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B477" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B479" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B480" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B481" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B482" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B483" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B484" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B486" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B487" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B488" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B489" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B490" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B491" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B492" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B493" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B494" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B495" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B496" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B497" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B498" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B499" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B500" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B501" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B502" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B503" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B504" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B505" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B506" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B507" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B508" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B509" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B510" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B511" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B512" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B513" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B514" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B515" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B516" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B517" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B518" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B519" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B520" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B521" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B522" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B523" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B524" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B525" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B526" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B527" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B528" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B529" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B530" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B531" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B532" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B533" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B534" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B535" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B536" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B537" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B538" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B539" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B540" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B541" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B542" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B543" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B544" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B545" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B546" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B547" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B548" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B549" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B550" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B551" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B552" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B553" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B554" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B555" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B556" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B557" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B558" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B559" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B560" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B561" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B562" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B563" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B564" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B565" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B566" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B567" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B568" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B569" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B570" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B571" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B572" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B573" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B574" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B575" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B576" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B577" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B578" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B579" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B580" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B581" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B582" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B583" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B584" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B585" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B586" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B587" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B588" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B589" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B590" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B591" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B592" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B593" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B594" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B595" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B596" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B597" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B598" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B599" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B600" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B601" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B602" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B603" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B604" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B605" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B606" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B607" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B608" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B609" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B610" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B611" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B612" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B613" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B614" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B615" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B616" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B617" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B618" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B619" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B620" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B621" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B622" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B623" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B624" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B625" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B626" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B627" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B628" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B629" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B630" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B631" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B632" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B633" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B634" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B635" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B636" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B637" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B638" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B639" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B640" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B641" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B642" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B643" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B644" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B645" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B646" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B647" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B648" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B649" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B650" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B651" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B652" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B653" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B654" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B655" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B656" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B657" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B658" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B659" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B660" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B661" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B662" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B663" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B664" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B665" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B666" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B667" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B668" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B669" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B670" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B671" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B672" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B673" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B674" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B675" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B676" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B677" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B678" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B679" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B680" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B681" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B682" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B683" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B684" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B685" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B686" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B687" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B688" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B689" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B690" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B691" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B692" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B693" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B694" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B695" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B696" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B697" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B698" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B699" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B700" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B701" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B702" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B703" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B704" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B705" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B706" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B707" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B708" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B709" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B710" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B711" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B712" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B713" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B714" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B715" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B716" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B717" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B718" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B719" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B720" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B721" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B722" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B723" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B724" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B725" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B726" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B727" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B728" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B729" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B730" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B731" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B732" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B733" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B734" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B735" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B736" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B737" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B738" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B739" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B740" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B741" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B742" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B743" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B744" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B745" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B746" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B747" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B748" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B749" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B750" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B751" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B752" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B753" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B754" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B755" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B756" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B757" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B758" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B759" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B760" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B761" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B762" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B763" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B764" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B765" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B766" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B767" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B768" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B769" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B770" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B771" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B772" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B773" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B774" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B775" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B776" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B777" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B778" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B779" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B780" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B781" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B782" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B783" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B784" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B785" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B786" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B787" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B788" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B789" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B790" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B791" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B792" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B793" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B794" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B795" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B796" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B797" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B798" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B799" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B800" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B801" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B802" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B803" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B804" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B805" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B806" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B807" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B808" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B809" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B810" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B811" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B812" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B813" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B814" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B815" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B816" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B817" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B818" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B819" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B820" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B821" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B822" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B823" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B824" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B825" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B826" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B827" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B828" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B829" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B830" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B831" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B832" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B833" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B834" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B835" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B836" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B837" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B838" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B839" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B840" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B841" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B842" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B843" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B844" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B845" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B846" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B847" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B848" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B849" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B850" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B851" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B852" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B853" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B854" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B855" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B856" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B857" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B858" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B859" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B860" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B861" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B862" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B863" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B864" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="A865" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B865" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="A866" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B866" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B867" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B868" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B869" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B870" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B871" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="A872" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B872" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B873" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="A874" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B874" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="A875" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B875" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="A876" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B876" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2">
+      <c r="A877" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B877" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2">
+      <c r="A878" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B878" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2">
+      <c r="A879" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B879" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2">
+      <c r="A880" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B880" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2">
+      <c r="A881" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B881" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2">
+      <c r="A882" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B882" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="A883" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B883" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="A884" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B884" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2">
+      <c r="A885" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B885" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2">
+      <c r="A886" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B886" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2">
+      <c r="A887" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B887" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2">
+      <c r="A888" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B888" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2">
+      <c r="A889" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B889" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2">
+      <c r="A890" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B890" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2">
+      <c r="A891" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B891" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2">
+      <c r="A892" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B892" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2">
+      <c r="A893" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B893" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2">
+      <c r="A894" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B894" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2">
+      <c r="A895" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B895" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2">
+      <c r="A896" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B896" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2">
+      <c r="A897" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B897" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2">
+      <c r="A898" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B898" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2">
+      <c r="A899" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B899" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2">
+      <c r="A900" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B900" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2">
+      <c r="A901" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B901" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2">
+      <c r="A902" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B902" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2">
+      <c r="A903" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B903" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2">
+      <c r="A904" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B904" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2">
+      <c r="A905" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B905" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2">
+      <c r="A906" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B906" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2">
+      <c r="A907" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B907" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2">
+      <c r="A908" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B908" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2">
+      <c r="A909" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B909" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2">
+      <c r="A910" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B910" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2">
+      <c r="A911" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B911" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2">
+      <c r="A912" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B912" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2">
+      <c r="A913" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B913" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2">
+      <c r="A914" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B914" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2">
+      <c r="A915" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B915" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2">
+      <c r="A916" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B916" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2">
+      <c r="A917" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B917" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2">
+      <c r="A918" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B918" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2">
+      <c r="A919" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B919" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2">
+      <c r="A920" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B920" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2">
+      <c r="A921" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B921" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2">
+      <c r="A922" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B922" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2">
+      <c r="A923" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B923" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2">
+      <c r="A924" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B924" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2">
+      <c r="A925" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B925" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2">
+      <c r="A926" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B926" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2">
+      <c r="A927" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B927" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2">
+      <c r="A928" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B928" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2">
+      <c r="A929" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B929" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2">
+      <c r="A930" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B930" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2">
+      <c r="A931" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B931" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2">
+      <c r="A932" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B932" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2">
+      <c r="A933" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B933" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2">
+      <c r="A934" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B934" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2">
+      <c r="A935" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B935" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2">
+      <c r="A936" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B936" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2">
+      <c r="A937" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B937" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2">
+      <c r="A938" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B938" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2">
+      <c r="A939" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B939" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2">
+      <c r="A940" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B940" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="A941" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B941" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2">
+      <c r="A942" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B942" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2">
+      <c r="A943" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B943" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2">
+      <c r="A944" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B944" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="A945" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B945" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2">
+      <c r="A946" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B946" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2">
+      <c r="A947" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B947" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2">
+      <c r="A948" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B948" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2">
+      <c r="A949" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B949" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2">
+      <c r="A950" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B950" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2">
+      <c r="A951" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B951" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2">
+      <c r="A952" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B952" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2">
+      <c r="A953" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B953" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2">
+      <c r="A954" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B954" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2">
+      <c r="A955" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B955" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2">
+      <c r="A956" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B956" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2">
+      <c r="A957" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B957" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2">
+      <c r="A958" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B958" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2">
+      <c r="A959" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B959" t="b">
         <v>0</v>
       </c>
     </row>
